--- a/表定义.xlsx
+++ b/表定义.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="195">
   <si>
     <t>表名</t>
   </si>
@@ -603,6 +603,142 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>bs_rolepermission</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>停职标志</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>addr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>phoneno</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobileno</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1表示已停职，禁止登陆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户在支付宝服务窗、微信公众号绑定时插入</t>
+  </si>
+  <si>
+    <t>用户在支付宝服务窗、微信公众号解除绑定时删除</t>
+  </si>
+  <si>
+    <t>微信用户绑定信息表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wx_binduser</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigint</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录编码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>createtime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>modifyuser</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后修改人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigint</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>modifytime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后修改时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ua2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wxuserid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信用户ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(40)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ua3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DROP TABLE IF EXISTS bs_rolepermission;
+CREATE TABLE `bs_rolepermission` (
+  `roleid` bigint(20) NOT NULL AUTO_INCREMENT COMMENT '角色ID',
+  `permission` varchar(40) NOT NULL COMMENT '权限项',
+  UNIQUE KEY `roleid` (`roleid`,`permission`)
+) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT='角色授权';
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">DROP TABLE IF EXISTS bs_permission;
 CREATE TABLE `bs_permission` (
   `id` bigint(20) NOT NULL AUTO_INCREMENT COMMENT 'ID',
@@ -622,41 +758,63 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>bs_rolepermission</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">DROP TABLE IF EXISTS bs_rolepermission;
-CREATE TABLE `bs_rolepermission` (
-  `roleid` bigint(20) NOT NULL AUTO_INCREMENT COMMENT '角色ID',
-  `permission` varchar(40) NOT NULL COMMENT '权限项',
-  UNIQUE KEY `roleid` (`roleid`,`permission`)
-) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT='角色授权';
+    <t>wx_binduser</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ia2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效唯一</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>userno</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信设备ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DROP TABLE IF EXISTS wx_binduser;
+CREATE TABLE `wx_binduser` (
+  `id` bigint(20) NOT NULL AUTO_INCREMENT COMMENT 'ID',
+  `rowstamp` bigint(20) NOT NULL COMMENT '时间戳',
+  `createuser` bigint(20) NOT NULL COMMENT '创建人',
+  `createtime` datetime NOT NULL COMMENT '创建时间',
+  `modifyuser` bigint(20) NOT NULL COMMENT '最后修改人',
+  `modifytime` datetime NOT NULL COMMENT '最后修改时间',
+  `userid` bigint(20) NOT NULL COMMENT '用户ID',
+  `username` varchar(50) NOT NULL COMMENT '姓名',
+  `userno` varchar(50) NOT NULL COMMENT '登录编码',
+  `wxuserid` varchar(40) NOT NULL COMMENT '微信用户ID',
+  `deviceid` varchar(40) DEFAULT NULL COMMENT '微信设备ID',
+  PRIMARY KEY (`id`),
+  UNIQUE KEY `wxbind` (`userno`,`wxuserid`)
+) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT='微信用户绑定信息表';
 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>停职标志</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>addr</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>phoneno</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobileno</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1表示已停职，禁止登陆</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -818,7 +976,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -873,6 +1031,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
@@ -891,14 +1052,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1215,10 +1379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H136"/>
+  <dimension ref="A1:H165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1233,10 +1397,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1249,10 +1413,10 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1271,76 +1435,76 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
@@ -1587,7 +1751,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>55</v>
@@ -1605,7 +1769,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
@@ -1617,7 +1781,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>57</v>
@@ -1637,7 +1801,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>60</v>
@@ -1660,7 +1824,7 @@
         <v>85</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>62</v>
@@ -1673,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1849,10 +2013,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="17"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="13" t="s">
         <v>90</v>
       </c>
@@ -1865,10 +2029,10 @@
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="20"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="2" t="s">
         <v>91</v>
       </c>
@@ -1887,76 +2051,76 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
@@ -2237,72 +2401,72 @@
       <c r="H57" s="11"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="17" t="s">
+      <c r="A58" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="B58" s="17"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="17" t="s">
+      <c r="A59" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="17" t="s">
+      <c r="A60" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B60" s="17"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="17" t="s">
+      <c r="A61" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="B61" s="17"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="17" t="s">
+      <c r="A62" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="B62" s="17"/>
-      <c r="C62" s="21" t="s">
+      <c r="B62" s="18"/>
+      <c r="C62" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="24"/>
     </row>
     <row r="65" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="17" t="s">
+      <c r="A65" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B65" s="17"/>
+      <c r="B65" s="18"/>
       <c r="C65" s="13" t="s">
         <v>119</v>
       </c>
@@ -2315,10 +2479,10 @@
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="19" t="s">
+      <c r="A66" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B66" s="20"/>
+      <c r="B66" s="21"/>
       <c r="C66" s="2" t="s">
         <v>120</v>
       </c>
@@ -2337,76 +2501,76 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="17" t="s">
+      <c r="A67" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B67" s="17"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="18"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="17" t="s">
+      <c r="A68" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B68" s="17"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="17" t="s">
+      <c r="A69" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B69" s="17"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="17" t="s">
+      <c r="A70" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="19"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="17" t="s">
+      <c r="A71" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="18"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="17" t="s">
+      <c r="A72" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B72" s="17"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
-      <c r="H72" s="18"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
@@ -2641,70 +2805,70 @@
       <c r="H84" s="9"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="17" t="s">
+      <c r="A85" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="B85" s="17"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="18"/>
-      <c r="E85" s="18"/>
-      <c r="F85" s="18"/>
-      <c r="G85" s="18"/>
-      <c r="H85" s="18"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="19"/>
+      <c r="H85" s="19"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="17" t="s">
+      <c r="A86" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="B86" s="17"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="18"/>
-      <c r="E86" s="18"/>
-      <c r="F86" s="18"/>
-      <c r="G86" s="18"/>
-      <c r="H86" s="18"/>
+      <c r="B86" s="18"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="19"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="17" t="s">
+      <c r="A87" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B87" s="17"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="18"/>
-      <c r="G87" s="18"/>
-      <c r="H87" s="18"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="19"/>
+      <c r="H87" s="19"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="17" t="s">
+      <c r="A88" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="B88" s="17"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="18"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="18"/>
-      <c r="H88" s="18"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="19"/>
+      <c r="H88" s="19"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="17" t="s">
+      <c r="A89" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="B89" s="17"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="18"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="18"/>
-      <c r="H89" s="18"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="19"/>
+      <c r="H89" s="19"/>
     </row>
     <row r="92" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A92" s="17" t="s">
+      <c r="A92" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B92" s="17"/>
+      <c r="B92" s="18"/>
       <c r="C92" s="13" t="s">
         <v>145</v>
       </c>
@@ -2717,10 +2881,10 @@
       <c r="H92" s="1"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="19" t="s">
+      <c r="A93" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B93" s="20"/>
+      <c r="B93" s="21"/>
       <c r="C93" s="2"/>
       <c r="D93" s="3" t="s">
         <v>4</v>
@@ -2737,76 +2901,76 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="17" t="s">
+      <c r="A94" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B94" s="17"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="18"/>
-      <c r="E94" s="18"/>
-      <c r="F94" s="18"/>
-      <c r="G94" s="18"/>
-      <c r="H94" s="18"/>
+      <c r="B94" s="18"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="19"/>
+      <c r="H94" s="19"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="17" t="s">
+      <c r="A95" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B95" s="17"/>
-      <c r="C95" s="18"/>
-      <c r="D95" s="18"/>
-      <c r="E95" s="18"/>
-      <c r="F95" s="18"/>
-      <c r="G95" s="18"/>
-      <c r="H95" s="18"/>
+      <c r="B95" s="18"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="19"/>
+      <c r="G95" s="19"/>
+      <c r="H95" s="19"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="17" t="s">
+      <c r="A96" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B96" s="17"/>
-      <c r="C96" s="18"/>
-      <c r="D96" s="18"/>
-      <c r="E96" s="18"/>
-      <c r="F96" s="18"/>
-      <c r="G96" s="18"/>
-      <c r="H96" s="18"/>
+      <c r="B96" s="18"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="19"/>
+      <c r="G96" s="19"/>
+      <c r="H96" s="19"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="17" t="s">
+      <c r="A97" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B97" s="17"/>
-      <c r="C97" s="18"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="18"/>
-      <c r="F97" s="18"/>
-      <c r="G97" s="18"/>
-      <c r="H97" s="18"/>
+      <c r="B97" s="18"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="19"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="19"/>
+      <c r="G97" s="19"/>
+      <c r="H97" s="19"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="17" t="s">
+      <c r="A98" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B98" s="17"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="18"/>
-      <c r="G98" s="18"/>
-      <c r="H98" s="18"/>
+      <c r="B98" s="18"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="19"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="19"/>
+      <c r="G98" s="19"/>
+      <c r="H98" s="19"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="17" t="s">
+      <c r="A99" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B99" s="17"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="18"/>
-      <c r="G99" s="18"/>
-      <c r="H99" s="18"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="19"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="19"/>
+      <c r="G99" s="19"/>
+      <c r="H99" s="19"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
@@ -3049,77 +3213,77 @@
       <c r="H111" s="16"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112" s="17" t="s">
+      <c r="A112" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="B112" s="17"/>
-      <c r="C112" s="18"/>
-      <c r="D112" s="18"/>
-      <c r="E112" s="18"/>
-      <c r="F112" s="18"/>
-      <c r="G112" s="18"/>
-      <c r="H112" s="18"/>
+      <c r="B112" s="18"/>
+      <c r="C112" s="19"/>
+      <c r="D112" s="19"/>
+      <c r="E112" s="19"/>
+      <c r="F112" s="19"/>
+      <c r="G112" s="19"/>
+      <c r="H112" s="19"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="17" t="s">
+      <c r="A113" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="B113" s="17"/>
-      <c r="C113" s="18"/>
-      <c r="D113" s="18"/>
-      <c r="E113" s="18"/>
-      <c r="F113" s="18"/>
-      <c r="G113" s="18"/>
-      <c r="H113" s="18"/>
+      <c r="B113" s="18"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="19"/>
+      <c r="E113" s="19"/>
+      <c r="F113" s="19"/>
+      <c r="G113" s="19"/>
+      <c r="H113" s="19"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="17" t="s">
+      <c r="A114" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B114" s="17"/>
-      <c r="C114" s="18"/>
-      <c r="D114" s="18"/>
-      <c r="E114" s="18"/>
-      <c r="F114" s="18"/>
-      <c r="G114" s="18"/>
-      <c r="H114" s="18"/>
+      <c r="B114" s="18"/>
+      <c r="C114" s="19"/>
+      <c r="D114" s="19"/>
+      <c r="E114" s="19"/>
+      <c r="F114" s="19"/>
+      <c r="G114" s="19"/>
+      <c r="H114" s="19"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="17" t="s">
+      <c r="A115" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="B115" s="17"/>
-      <c r="C115" s="18"/>
-      <c r="D115" s="18"/>
-      <c r="E115" s="18"/>
-      <c r="F115" s="18"/>
-      <c r="G115" s="18"/>
-      <c r="H115" s="18"/>
+      <c r="B115" s="18"/>
+      <c r="C115" s="19"/>
+      <c r="D115" s="19"/>
+      <c r="E115" s="19"/>
+      <c r="F115" s="19"/>
+      <c r="G115" s="19"/>
+      <c r="H115" s="19"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="17" t="s">
+      <c r="A116" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="B116" s="17"/>
-      <c r="C116" s="18" t="s">
+      <c r="B116" s="18"/>
+      <c r="C116" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="D116" s="18"/>
-      <c r="E116" s="18"/>
-      <c r="F116" s="18"/>
-      <c r="G116" s="18"/>
-      <c r="H116" s="18"/>
+      <c r="D116" s="19"/>
+      <c r="E116" s="19"/>
+      <c r="F116" s="19"/>
+      <c r="G116" s="19"/>
+      <c r="H116" s="19"/>
     </row>
     <row r="119" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A119" s="17" t="s">
+      <c r="A119" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B119" s="17"/>
+      <c r="B119" s="18"/>
       <c r="C119" s="13" t="s">
         <v>149</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
@@ -3127,10 +3291,10 @@
       <c r="H119" s="1"/>
     </row>
     <row r="120" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A120" s="19" t="s">
+      <c r="A120" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B120" s="20"/>
+      <c r="B120" s="21"/>
       <c r="C120" s="2" t="s">
         <v>111</v>
       </c>
@@ -3145,76 +3309,76 @@
       <c r="H120" s="4"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" s="17" t="s">
+      <c r="A121" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B121" s="17"/>
-      <c r="C121" s="18"/>
-      <c r="D121" s="18"/>
-      <c r="E121" s="18"/>
-      <c r="F121" s="18"/>
-      <c r="G121" s="18"/>
-      <c r="H121" s="18"/>
+      <c r="B121" s="18"/>
+      <c r="C121" s="19"/>
+      <c r="D121" s="19"/>
+      <c r="E121" s="19"/>
+      <c r="F121" s="19"/>
+      <c r="G121" s="19"/>
+      <c r="H121" s="19"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="17" t="s">
+      <c r="A122" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B122" s="17"/>
-      <c r="C122" s="18"/>
-      <c r="D122" s="18"/>
-      <c r="E122" s="18"/>
-      <c r="F122" s="18"/>
-      <c r="G122" s="18"/>
-      <c r="H122" s="18"/>
+      <c r="B122" s="18"/>
+      <c r="C122" s="19"/>
+      <c r="D122" s="19"/>
+      <c r="E122" s="19"/>
+      <c r="F122" s="19"/>
+      <c r="G122" s="19"/>
+      <c r="H122" s="19"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A123" s="17" t="s">
+      <c r="A123" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B123" s="17"/>
-      <c r="C123" s="18"/>
-      <c r="D123" s="18"/>
-      <c r="E123" s="18"/>
-      <c r="F123" s="18"/>
-      <c r="G123" s="18"/>
-      <c r="H123" s="18"/>
+      <c r="B123" s="18"/>
+      <c r="C123" s="19"/>
+      <c r="D123" s="19"/>
+      <c r="E123" s="19"/>
+      <c r="F123" s="19"/>
+      <c r="G123" s="19"/>
+      <c r="H123" s="19"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A124" s="17" t="s">
+      <c r="A124" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B124" s="17"/>
-      <c r="C124" s="18"/>
-      <c r="D124" s="18"/>
-      <c r="E124" s="18"/>
-      <c r="F124" s="18"/>
-      <c r="G124" s="18"/>
-      <c r="H124" s="18"/>
+      <c r="B124" s="18"/>
+      <c r="C124" s="19"/>
+      <c r="D124" s="19"/>
+      <c r="E124" s="19"/>
+      <c r="F124" s="19"/>
+      <c r="G124" s="19"/>
+      <c r="H124" s="19"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A125" s="17" t="s">
+      <c r="A125" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B125" s="17"/>
-      <c r="C125" s="18"/>
-      <c r="D125" s="18"/>
-      <c r="E125" s="18"/>
-      <c r="F125" s="18"/>
-      <c r="G125" s="18"/>
-      <c r="H125" s="18"/>
+      <c r="B125" s="18"/>
+      <c r="C125" s="19"/>
+      <c r="D125" s="19"/>
+      <c r="E125" s="19"/>
+      <c r="F125" s="19"/>
+      <c r="G125" s="19"/>
+      <c r="H125" s="19"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="17" t="s">
+      <c r="A126" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B126" s="17"/>
-      <c r="C126" s="18"/>
-      <c r="D126" s="18"/>
-      <c r="E126" s="18"/>
-      <c r="F126" s="18"/>
-      <c r="G126" s="18"/>
-      <c r="H126" s="18"/>
+      <c r="B126" s="18"/>
+      <c r="C126" s="19"/>
+      <c r="D126" s="19"/>
+      <c r="E126" s="19"/>
+      <c r="F126" s="19"/>
+      <c r="G126" s="19"/>
+      <c r="H126" s="19"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
@@ -3307,163 +3471,535 @@
       <c r="H131" s="9"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="17" t="s">
+      <c r="A132" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="B132" s="17"/>
-      <c r="C132" s="18"/>
-      <c r="D132" s="18"/>
-      <c r="E132" s="18"/>
-      <c r="F132" s="18"/>
-      <c r="G132" s="18"/>
-      <c r="H132" s="18"/>
+      <c r="B132" s="18"/>
+      <c r="C132" s="19"/>
+      <c r="D132" s="19"/>
+      <c r="E132" s="19"/>
+      <c r="F132" s="19"/>
+      <c r="G132" s="19"/>
+      <c r="H132" s="19"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133" s="17" t="s">
+      <c r="A133" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="B133" s="17"/>
-      <c r="C133" s="18"/>
-      <c r="D133" s="18"/>
-      <c r="E133" s="18"/>
-      <c r="F133" s="18"/>
-      <c r="G133" s="18"/>
-      <c r="H133" s="18"/>
+      <c r="B133" s="18"/>
+      <c r="C133" s="19"/>
+      <c r="D133" s="19"/>
+      <c r="E133" s="19"/>
+      <c r="F133" s="19"/>
+      <c r="G133" s="19"/>
+      <c r="H133" s="19"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" s="17" t="s">
+      <c r="A134" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B134" s="17"/>
-      <c r="C134" s="18"/>
-      <c r="D134" s="18"/>
-      <c r="E134" s="18"/>
-      <c r="F134" s="18"/>
-      <c r="G134" s="18"/>
-      <c r="H134" s="18"/>
+      <c r="B134" s="18"/>
+      <c r="C134" s="19"/>
+      <c r="D134" s="19"/>
+      <c r="E134" s="19"/>
+      <c r="F134" s="19"/>
+      <c r="G134" s="19"/>
+      <c r="H134" s="19"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A135" s="17" t="s">
+      <c r="A135" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="B135" s="17"/>
-      <c r="C135" s="18"/>
-      <c r="D135" s="18"/>
-      <c r="E135" s="18"/>
-      <c r="F135" s="18"/>
-      <c r="G135" s="18"/>
-      <c r="H135" s="18"/>
+      <c r="B135" s="18"/>
+      <c r="C135" s="19"/>
+      <c r="D135" s="19"/>
+      <c r="E135" s="19"/>
+      <c r="F135" s="19"/>
+      <c r="G135" s="19"/>
+      <c r="H135" s="19"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="17" t="s">
+      <c r="A136" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="B136" s="17"/>
-      <c r="C136" s="18"/>
-      <c r="D136" s="18"/>
-      <c r="E136" s="18"/>
-      <c r="F136" s="18"/>
-      <c r="G136" s="18"/>
-      <c r="H136" s="18"/>
+      <c r="B136" s="18"/>
+      <c r="C136" s="19"/>
+      <c r="D136" s="19"/>
+      <c r="E136" s="19"/>
+      <c r="F136" s="19"/>
+      <c r="G136" s="19"/>
+      <c r="H136" s="19"/>
+    </row>
+    <row r="139" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A139" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B139" s="18"/>
+      <c r="C139" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B140" s="21"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
+      <c r="F140" s="3"/>
+      <c r="G140" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H140" s="6"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B141" s="18"/>
+      <c r="C141" s="19"/>
+      <c r="D141" s="19"/>
+      <c r="E141" s="19"/>
+      <c r="F141" s="19"/>
+      <c r="G141" s="19"/>
+      <c r="H141" s="19"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B142" s="18"/>
+      <c r="C142" s="19"/>
+      <c r="D142" s="19"/>
+      <c r="E142" s="19"/>
+      <c r="F142" s="19"/>
+      <c r="G142" s="19"/>
+      <c r="H142" s="19"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A143" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B143" s="18"/>
+      <c r="C143" s="19"/>
+      <c r="D143" s="19"/>
+      <c r="E143" s="19"/>
+      <c r="F143" s="19"/>
+      <c r="G143" s="19"/>
+      <c r="H143" s="19"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A144" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B144" s="18"/>
+      <c r="C144" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="D144" s="19"/>
+      <c r="E144" s="19"/>
+      <c r="F144" s="19"/>
+      <c r="G144" s="19"/>
+      <c r="H144" s="19"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B145" s="18"/>
+      <c r="C145" s="19"/>
+      <c r="D145" s="19"/>
+      <c r="E145" s="19"/>
+      <c r="F145" s="19"/>
+      <c r="G145" s="19"/>
+      <c r="H145" s="19"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B146" s="18"/>
+      <c r="C146" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="D146" s="19"/>
+      <c r="E146" s="19"/>
+      <c r="F146" s="19"/>
+      <c r="G146" s="19"/>
+      <c r="H146" s="19"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A147" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B147" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C147" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D147" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E147" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F147" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G147" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H147" s="17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148" s="9">
+        <v>1</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D148" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E148" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F148" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G148" s="9"/>
+      <c r="H148" s="9"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149" s="9">
+        <v>2</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D149" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E149" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F149" s="9"/>
+      <c r="G149" s="9"/>
+      <c r="H149" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A150" s="9">
+        <v>3</v>
+      </c>
+      <c r="B150" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C150" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D150" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E150" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F150" s="11"/>
+      <c r="G150" s="11"/>
+      <c r="H150" s="11"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A151" s="9">
+        <v>4</v>
+      </c>
+      <c r="B151" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C151" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D151" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E151" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F151" s="11"/>
+      <c r="G151" s="9"/>
+      <c r="H151" s="9"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152" s="9">
+        <v>5</v>
+      </c>
+      <c r="B152" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D152" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E152" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="F152" s="11"/>
+      <c r="G152" s="11"/>
+      <c r="H152" s="11"/>
+    </row>
+    <row r="153" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A153" s="9">
+        <v>6</v>
+      </c>
+      <c r="B153" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C153" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D153" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E153" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="F153" s="11"/>
+      <c r="G153" s="9"/>
+      <c r="H153" s="9"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A154" s="9">
+        <v>7</v>
+      </c>
+      <c r="B154" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="C154" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D154" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E154" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F154" s="11"/>
+      <c r="G154" s="11"/>
+      <c r="H154" s="11"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A155" s="11">
+        <v>8</v>
+      </c>
+      <c r="B155" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C155" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D155" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="E155" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="F155" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="G155" s="11"/>
+      <c r="H155" s="11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A156" s="9">
+        <v>8</v>
+      </c>
+      <c r="B156" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C156" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D156" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E156" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="F156" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="G156" s="9"/>
+      <c r="H156" s="9"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A157" s="9">
+        <v>9</v>
+      </c>
+      <c r="B157" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C157" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D157" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E157" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="F157" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="G157" s="11"/>
+      <c r="H157" s="11"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A158" s="9">
+        <v>10</v>
+      </c>
+      <c r="B158" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C158" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="D158" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E158" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="F158" s="11"/>
+      <c r="G158" s="9"/>
+      <c r="H158" s="9"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A159" s="9"/>
+      <c r="B159" s="9"/>
+      <c r="C159" s="9"/>
+      <c r="D159" s="9"/>
+      <c r="E159" s="9"/>
+      <c r="F159" s="9"/>
+      <c r="G159" s="9"/>
+      <c r="H159" s="9"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A160" s="11"/>
+      <c r="B160" s="11"/>
+      <c r="C160" s="11"/>
+      <c r="D160" s="11"/>
+      <c r="E160" s="11"/>
+      <c r="F160" s="11"/>
+      <c r="G160" s="11"/>
+      <c r="H160" s="11"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A161" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B161" s="18"/>
+      <c r="C161" s="19"/>
+      <c r="D161" s="19"/>
+      <c r="E161" s="19"/>
+      <c r="F161" s="19"/>
+      <c r="G161" s="19"/>
+      <c r="H161" s="19"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A162" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B162" s="18"/>
+      <c r="C162" s="19"/>
+      <c r="D162" s="19"/>
+      <c r="E162" s="19"/>
+      <c r="F162" s="19"/>
+      <c r="G162" s="19"/>
+      <c r="H162" s="19"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A163" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B163" s="18"/>
+      <c r="C163" s="19"/>
+      <c r="D163" s="19"/>
+      <c r="E163" s="19"/>
+      <c r="F163" s="19"/>
+      <c r="G163" s="19"/>
+      <c r="H163" s="19"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A164" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B164" s="18"/>
+      <c r="C164" s="19"/>
+      <c r="D164" s="19"/>
+      <c r="E164" s="19"/>
+      <c r="F164" s="19"/>
+      <c r="G164" s="19"/>
+      <c r="H164" s="19"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A165" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B165" s="18"/>
+      <c r="C165" s="19"/>
+      <c r="D165" s="19"/>
+      <c r="E165" s="19"/>
+      <c r="F165" s="19"/>
+      <c r="G165" s="19"/>
+      <c r="H165" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="110">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:H68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:H69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:H67"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:H86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:H87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:H88"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:H71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:H72"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:H85"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:H95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:H96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:H97"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:H89"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:H94"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="C113:H113"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="C114:H114"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="C115:H115"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C99:H99"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="C112:H112"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="C122:H122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="C123:H123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="C124:H124"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="C116:H116"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="C121:H121"/>
+  <mergeCells count="134">
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="C164:H164"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="C165:H165"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="C145:H145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="C146:H146"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="C161:H161"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="C162:H162"/>
+    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="C163:H163"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:H141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="C142:H142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="C143:H143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="C144:H144"/>
     <mergeCell ref="A136:B136"/>
     <mergeCell ref="C136:H136"/>
     <mergeCell ref="A133:B133"/>
@@ -3478,6 +4014,102 @@
     <mergeCell ref="C126:H126"/>
     <mergeCell ref="A132:B132"/>
     <mergeCell ref="C132:H132"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:H122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:H123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:H124"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:H116"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:H121"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:H113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:H114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:H115"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:H112"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:H95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:H97"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:H89"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:H94"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:H86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:H87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:H88"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:H72"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:H85"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:H68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:H69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:H67"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3489,8 +4121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3512,13 +4144,13 @@
       <c r="A2" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -3527,10 +4159,10 @@
       <c r="B3" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -3539,10 +4171,10 @@
       <c r="B4" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -3551,105 +4183,105 @@
       <c r="B5" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>147</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
+        <v>183</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>148</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
+        <v>182</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
+      <c r="A8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="B16:F16"/>
@@ -3661,6 +4293,11 @@
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/表定义.xlsx
+++ b/表定义.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="210">
   <si>
     <t>表名</t>
   </si>
@@ -305,10 +305,6 @@
   </si>
   <si>
     <t>suspended</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>department</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -504,6 +500,303 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>建表语句列表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>建表语句</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>约束条件/字段说明</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>alias</t>
+  </si>
+  <si>
+    <t>别名</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>建表SQL</t>
+  </si>
+  <si>
+    <t>1 系统固有的不能删除 ，关联插入的不能只能在关联模块联动更新或删除，关联插入的必须以@开头+关联id
+2 手工插入的可删除，手工插入的必须以Z开头</t>
+  </si>
+  <si>
+    <t>权限项</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs_permission</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs_permission</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs_rolepermission</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色权限</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs_rolepermission</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>停职标志</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>addr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>phoneno</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobileno</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1表示已停职，禁止登陆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户在支付宝服务窗、微信公众号绑定时插入</t>
+  </si>
+  <si>
+    <t>用户在支付宝服务窗、微信公众号解除绑定时删除</t>
+  </si>
+  <si>
+    <t>微信用户绑定信息表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wx_binduser</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigint</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录编码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>createtime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>modifyuser</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后修改人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigint</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>modifytime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后修改时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ua2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wxuserid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信用户ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(40)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ua3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DROP TABLE IF EXISTS bs_rolepermission;
+CREATE TABLE `bs_rolepermission` (
+  `roleid` bigint(20) NOT NULL AUTO_INCREMENT COMMENT '角色ID',
+  `permission` varchar(40) NOT NULL COMMENT '权限项',
+  UNIQUE KEY `roleid` (`roleid`,`permission`)
+) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT='角色授权';
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DROP TABLE IF EXISTS bs_permission;
+CREATE TABLE `bs_permission` (
+  `id` bigint(20) NOT NULL AUTO_INCREMENT COMMENT 'ID',
+  `rowstamp` bigint(20) NOT NULL COMMENT '时间戳',
+  `createuser` bigint(20) NOT NULL COMMENT '创建人',
+  `createtime` datetime NOT NULL COMMENT '创建时间',
+  `modifyuser` bigint(20) NOT NULL COMMENT '最后修改人',
+  `modifytime` datetime NOT NULL COMMENT '最后修改时间',
+  `permission` varchar(40) NOT NULL COMMENT '权限项',
+  `name` varchar(40) NOT NULL COMMENT '名称',
+  `alias` varchar(40) NOT NULL COMMENT '别名',
+  `remark` varchar(200) DEFAULT NULL COMMENT '描述',
+  PRIMARY KEY (`id`),
+  UNIQUE KEY `permission` (`permission`)
+) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT='权限项(子系统)';
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wx_binduser</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ia2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效唯一</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>userno</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信设备ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DROP TABLE IF EXISTS wx_binduser;
+CREATE TABLE `wx_binduser` (
+  `id` bigint(20) NOT NULL AUTO_INCREMENT COMMENT 'ID',
+  `rowstamp` bigint(20) NOT NULL COMMENT '时间戳',
+  `createuser` bigint(20) NOT NULL COMMENT '创建人',
+  `createtime` datetime NOT NULL COMMENT '创建时间',
+  `modifyuser` bigint(20) NOT NULL COMMENT '最后修改人',
+  `modifytime` datetime NOT NULL COMMENT '最后修改时间',
+  `userid` bigint(20) NOT NULL COMMENT '用户ID',
+  `username` varchar(50) NOT NULL COMMENT '姓名',
+  `userno` varchar(50) NOT NULL COMMENT '登录编码',
+  `wxuserid` varchar(40) NOT NULL COMMENT '微信用户ID',
+  `deviceid` varchar(40) DEFAULT NULL COMMENT '微信设备ID',
+  PRIMARY KEY (`id`),
+  UNIQUE KEY `wxbind` (`userno`,`wxuserid`)
+) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT='微信用户绑定信息表';
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门定义表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs_department</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>departmentno</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>departmentname</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 系统提供的部门不能改编码和名称、只能改别名、描述，不能删除
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>departmentid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs_department</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">DROP TABLE IF EXISTS bs_role;
 CREATE TABLE `bs_role` (
   `id` bigint(20) NOT NULL AUTO_INCREMENT COMMENT 'ID',
@@ -524,19 +817,47 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>建表语句列表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>建表语句</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>所在部门</t>
+    <t>departmentalias</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门编码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门别名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门描述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>固有部门</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DROP TABLE IF EXISTS bs_department;
+CREATE TABLE `bs_department` (
+  `id` bigint(20) NOT NULL AUTO_INCREMENT COMMENT 'ID',
+  `rowstamp` bigint(20) NOT NULL COMMENT '时间戳',
+  `createuser` bigint(20) NOT NULL COMMENT '创建人',
+  `createtime` datetime NOT NULL COMMENT '创建时间',
+  `modifyuser` bigint(20) NOT NULL COMMENT '最后修改人',
+  `modifytime` datetime NOT NULL COMMENT '最后修改时间',
+  `departmentno` varchar(40) DEFAULT NULL COMMENT '部门编码',
+  `departmentname` varchar(50) NOT NULL COMMENT '部门名称',
+  `departmentalias` varchar(50) NOT NULL COMMENT '部门别名',
+  `remark` varchar(200) DEFAULT NULL COMMENT '部门描述',
+  `fixed` tinyint(4) NOT NULL DEFAULT '0' COMMENT '固有部门',
+  PRIMARY KEY (`id`),
+  UNIQUE KEY `orgid` (`departmentno`,`departmentname`,`fixed`)
+) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT='部门定义表'; 
+</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -558,263 +879,31 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>约束条件/字段说明</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>alias</t>
-  </si>
-  <si>
-    <t>别名</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>建表SQL</t>
-  </si>
-  <si>
-    <t>1 系统固有的不能删除 ，关联插入的不能只能在关联模块联动更新或删除，关联插入的必须以@开头+关联id
-2 手工插入的可删除，手工插入的必须以Z开头</t>
-  </si>
-  <si>
-    <t>权限项</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bs_permission</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bs_permission</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bs_rolepermission</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色权限</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bs_rolepermission</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>停职标志</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>addr</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>phoneno</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobileno</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1表示已停职，禁止登陆</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户在支付宝服务窗、微信公众号绑定时插入</t>
-  </si>
-  <si>
-    <t>用户在支付宝服务窗、微信公众号解除绑定时删除</t>
-  </si>
-  <si>
-    <t>微信用户绑定信息表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>wx_binduser</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bigint</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录编码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>createtime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>modifyuser</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后修改人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bigint</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>modifytime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后修改时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ua2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>wxuserid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信用户ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(40)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ua3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">DROP TABLE IF EXISTS bs_rolepermission;
-CREATE TABLE `bs_rolepermission` (
-  `roleid` bigint(20) NOT NULL AUTO_INCREMENT COMMENT '角色ID',
-  `permission` varchar(40) NOT NULL COMMENT '权限项',
-  UNIQUE KEY `roleid` (`roleid`,`permission`)
-) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT='角色授权';
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">DROP TABLE IF EXISTS bs_permission;
-CREATE TABLE `bs_permission` (
+    <t>bs_userdepartment</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DROP TABLE IF EXISTS bs_userdepartment;
+CREATE TABLE `bs_userdepartment` (
   `id` bigint(20) NOT NULL AUTO_INCREMENT COMMENT 'ID',
   `rowstamp` bigint(20) NOT NULL COMMENT '时间戳',
   `createuser` bigint(20) NOT NULL COMMENT '创建人',
   `createtime` datetime NOT NULL COMMENT '创建时间',
   `modifyuser` bigint(20) NOT NULL COMMENT '最后修改人',
   `modifytime` datetime NOT NULL COMMENT '最后修改时间',
-  `permission` varchar(40) NOT NULL COMMENT '权限项',
-  `name` varchar(40) NOT NULL COMMENT '名称',
-  `alias` varchar(40) NOT NULL COMMENT '别名',
-  `remark` varchar(200) DEFAULT NULL COMMENT '描述',
+  `userid` bigint(20) NOT NULL COMMENT '员工ID',
+  `departmentid` bigint(20) NOT NULL COMMENT '部门ID',
   PRIMARY KEY (`id`),
-  UNIQUE KEY `permission` (`permission`)
-) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT='权限项(子系统)';
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>wx_binduser</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ia2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>有效唯一</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>username</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>userno</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信设备ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">DROP TABLE IF EXISTS wx_binduser;
-CREATE TABLE `wx_binduser` (
-  `id` bigint(20) NOT NULL AUTO_INCREMENT COMMENT 'ID',
-  `rowstamp` bigint(20) NOT NULL COMMENT '时间戳',
-  `createuser` bigint(20) NOT NULL COMMENT '创建人',
-  `createtime` datetime NOT NULL COMMENT '创建时间',
-  `modifyuser` bigint(20) NOT NULL COMMENT '最后修改人',
-  `modifytime` datetime NOT NULL COMMENT '最后修改时间',
-  `userid` bigint(20) NOT NULL COMMENT '用户ID',
-  `username` varchar(50) NOT NULL COMMENT '姓名',
-  `userno` varchar(50) NOT NULL COMMENT '登录编码',
-  `wxuserid` varchar(40) NOT NULL COMMENT '微信用户ID',
-  `deviceid` varchar(40) DEFAULT NULL COMMENT '微信设备ID',
-  PRIMARY KEY (`id`),
-  UNIQUE KEY `wxbind` (`userno`,`wxuserid`)
-) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT='微信用户绑定信息表';
-</t>
+  UNIQUE KEY `userid` (`userid`,`departmentid`)
+) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT='员工部门表';</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs_userdepartment</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -976,7 +1065,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1035,6 +1124,12 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1052,17 +1147,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1379,10 +1471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H165"/>
+  <dimension ref="A1:H219"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="C139" sqref="C139"/>
+    <sheetView topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="C212" sqref="C212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1397,15 +1489,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
+      <c r="B1" s="20"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1413,10 +1505,10 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1435,76 +1527,76 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
@@ -1751,7 +1843,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>55</v>
@@ -1769,7 +1861,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
@@ -1781,7 +1873,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>57</v>
@@ -1801,13 +1893,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
@@ -1824,7 +1916,7 @@
         <v>85</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>62</v>
@@ -1837,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1869,13 +1961,13 @@
         <v>18</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
@@ -2013,15 +2105,15 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="18"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -2029,12 +2121,12 @@
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="21"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>4</v>
@@ -2051,76 +2143,76 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="18"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
@@ -2277,21 +2369,21 @@
         <v>8</v>
       </c>
       <c r="B51" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="11" t="s">
         <v>92</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>93</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G51" s="11"/>
       <c r="H51" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -2299,10 +2391,10 @@
         <v>9</v>
       </c>
       <c r="B52" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" s="10" t="s">
         <v>96</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>97</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>41</v>
@@ -2321,10 +2413,10 @@
         <v>10</v>
       </c>
       <c r="B53" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" s="11" t="s">
         <v>98</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>99</v>
       </c>
       <c r="D53" s="12" t="s">
         <v>41</v>
@@ -2344,7 +2436,7 @@
         <v>66</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D54" s="10" t="s">
         <v>68</v>
@@ -2359,10 +2451,10 @@
         <v>12</v>
       </c>
       <c r="B55" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" s="12" t="s">
         <v>101</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>62</v>
@@ -2371,13 +2463,13 @@
         <v>25</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G55" s="11">
         <v>0</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -2401,77 +2493,77 @@
       <c r="H57" s="11"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="18" t="s">
+      <c r="A58" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B58" s="20"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="B58" s="18"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="18" t="s">
+      <c r="B59" s="20"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="B59" s="18"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="18" t="s">
+      <c r="B60" s="20"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B60" s="18"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="18" t="s">
+      <c r="B61" s="20"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B61" s="18"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="18" t="s">
+      <c r="B62" s="20"/>
+      <c r="C62" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="B62" s="18"/>
-      <c r="C62" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="24"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="26"/>
     </row>
     <row r="65" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="18" t="s">
+      <c r="A65" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B65" s="18"/>
+      <c r="B65" s="20"/>
       <c r="C65" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -2479,15 +2571,15 @@
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="20" t="s">
+      <c r="A66" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B66" s="21"/>
+      <c r="B66" s="23"/>
       <c r="C66" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="3" t="s">
@@ -2501,76 +2593,76 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="18" t="s">
+      <c r="A67" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B67" s="18"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="18" t="s">
+      <c r="A68" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B68" s="18"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="18" t="s">
+      <c r="A69" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B69" s="18"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="19"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="18" t="s">
+      <c r="A70" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B70" s="18"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="19"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="18" t="s">
+      <c r="A71" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B71" s="18"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
-      <c r="H71" s="19"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="18" t="s">
+      <c r="A72" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B72" s="18"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="19"/>
-      <c r="H72" s="19"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
@@ -2727,10 +2819,10 @@
         <v>8</v>
       </c>
       <c r="B80" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C80" s="11" t="s">
         <v>122</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>123</v>
       </c>
       <c r="D80" s="12" t="s">
         <v>24</v>
@@ -2749,10 +2841,10 @@
         <v>10</v>
       </c>
       <c r="B81" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C81" s="11" t="s">
         <v>113</v>
-      </c>
-      <c r="C81" s="11" t="s">
-        <v>114</v>
       </c>
       <c r="D81" s="12" t="s">
         <v>24</v>
@@ -2767,246 +2859,250 @@
       <c r="H81" s="11"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="9">
-        <v>11</v>
-      </c>
-      <c r="B82" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="D82" s="12" t="s">
-        <v>134</v>
-      </c>
+      <c r="A82" s="11"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="12"/>
       <c r="E82" s="11"/>
       <c r="F82" s="11"/>
       <c r="G82" s="11"/>
       <c r="H82" s="11"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="11"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
-      <c r="H83" s="11"/>
+      <c r="A83" s="9"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="9"/>
-      <c r="B84" s="10"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="9"/>
+      <c r="A84" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B84" s="20"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="21"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="18" t="s">
+      <c r="A85" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="B85" s="18"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="19"/>
-      <c r="E85" s="19"/>
-      <c r="F85" s="19"/>
-      <c r="G85" s="19"/>
-      <c r="H85" s="19"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="21"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="18" t="s">
+      <c r="A86" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="B86" s="18"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="19"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="19"/>
-      <c r="G86" s="19"/>
-      <c r="H86" s="19"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="21"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="18" t="s">
+      <c r="A87" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B87" s="18"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="19"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="19"/>
-      <c r="H87" s="19"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="21"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="18" t="s">
+      <c r="A88" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B88" s="18"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="19"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="19"/>
-      <c r="G88" s="19"/>
-      <c r="H88" s="19"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="B89" s="18"/>
-      <c r="C89" s="19"/>
-      <c r="D89" s="19"/>
-      <c r="E89" s="19"/>
-      <c r="F89" s="19"/>
-      <c r="G89" s="19"/>
-      <c r="H89" s="19"/>
-    </row>
-    <row r="92" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A92" s="18" t="s">
+      <c r="B88" s="20"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="21"/>
+    </row>
+    <row r="91" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A91" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B92" s="18"/>
-      <c r="C92" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
+      <c r="B91" s="20"/>
+      <c r="C91" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B92" s="23"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E92" s="4"/>
+      <c r="F92" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B93" s="21"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E93" s="4"/>
-      <c r="F93" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G93" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H93" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B93" s="20"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="21"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B94" s="18"/>
-      <c r="C94" s="19"/>
-      <c r="D94" s="19"/>
-      <c r="E94" s="19"/>
-      <c r="F94" s="19"/>
-      <c r="G94" s="19"/>
-      <c r="H94" s="19"/>
+      <c r="A94" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" s="20"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="21"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B95" s="18"/>
-      <c r="C95" s="19"/>
-      <c r="D95" s="19"/>
-      <c r="E95" s="19"/>
-      <c r="F95" s="19"/>
-      <c r="G95" s="19"/>
-      <c r="H95" s="19"/>
+      <c r="A95" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B95" s="20"/>
+      <c r="C95" s="21"/>
+      <c r="D95" s="21"/>
+      <c r="E95" s="21"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="21"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B96" s="18"/>
-      <c r="C96" s="19"/>
-      <c r="D96" s="19"/>
-      <c r="E96" s="19"/>
-      <c r="F96" s="19"/>
-      <c r="G96" s="19"/>
-      <c r="H96" s="19"/>
+      <c r="A96" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96" s="20"/>
+      <c r="C96" s="21"/>
+      <c r="D96" s="21"/>
+      <c r="E96" s="21"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="21"/>
+      <c r="H96" s="21"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B97" s="18"/>
-      <c r="C97" s="19"/>
-      <c r="D97" s="19"/>
-      <c r="E97" s="19"/>
-      <c r="F97" s="19"/>
-      <c r="G97" s="19"/>
-      <c r="H97" s="19"/>
+      <c r="A97" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B97" s="20"/>
+      <c r="C97" s="21"/>
+      <c r="D97" s="21"/>
+      <c r="E97" s="21"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="21"/>
+      <c r="H97" s="21"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B98" s="18"/>
-      <c r="C98" s="19"/>
-      <c r="D98" s="19"/>
-      <c r="E98" s="19"/>
-      <c r="F98" s="19"/>
-      <c r="G98" s="19"/>
-      <c r="H98" s="19"/>
+      <c r="A98" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B98" s="20"/>
+      <c r="C98" s="21"/>
+      <c r="D98" s="21"/>
+      <c r="E98" s="21"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="21"/>
+      <c r="H98" s="21"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B99" s="18"/>
-      <c r="C99" s="19"/>
-      <c r="D99" s="19"/>
-      <c r="E99" s="19"/>
-      <c r="F99" s="19"/>
-      <c r="G99" s="19"/>
-      <c r="H99" s="19"/>
+      <c r="A99" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E100" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F100" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H100" s="7" t="s">
-        <v>137</v>
-      </c>
+      <c r="A100" s="9">
+        <v>1</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>24</v>
@@ -3014,145 +3110,143 @@
       <c r="E101" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F101" s="9" t="s">
-        <v>26</v>
-      </c>
+      <c r="F101" s="9"/>
       <c r="G101" s="9"/>
-      <c r="H101" s="9"/>
+      <c r="H101" s="9" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="9">
-        <v>3</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D102" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D102" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E102" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="9" t="s">
-        <v>29</v>
-      </c>
+      <c r="E102" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F102" s="11"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="11"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="9">
-        <v>4</v>
-      </c>
-      <c r="B103" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C103" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D103" s="11" t="s">
+      <c r="A103" s="11">
+        <v>5</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" s="9">
+        <v>6</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D104" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E103" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F103" s="11"/>
-      <c r="G103" s="11"/>
-      <c r="H103" s="11"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="11">
-        <v>5</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D104" s="9" t="s">
+      <c r="E104" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="11"/>
+    </row>
+    <row r="105" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A105" s="9">
+        <v>7</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D105" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E104" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F104" s="9"/>
-      <c r="G104" s="9"/>
-      <c r="H104" s="9"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="9">
-        <v>6</v>
-      </c>
-      <c r="B105" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C105" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D105" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E105" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F105" s="11"/>
-      <c r="G105" s="11"/>
-      <c r="H105" s="11"/>
-    </row>
-    <row r="106" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="E105" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="9"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="E106" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F106" s="9"/>
+      <c r="F106" s="9" t="s">
+        <v>114</v>
+      </c>
       <c r="G106" s="9"/>
       <c r="H106" s="9"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="9">
-        <v>9</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C107" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D107" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D107" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E107" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F107" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="G107" s="9"/>
-      <c r="H107" s="9"/>
+      <c r="E107" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="11"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="9">
-        <v>10</v>
+      <c r="A108" s="11">
+        <v>11</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D108" s="11" t="s">
         <v>70</v>
@@ -3165,903 +3259,1715 @@
       <c r="H108" s="11"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="11">
+      <c r="A109" s="9">
+        <v>12</v>
+      </c>
+      <c r="B109" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C109" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E109" s="15"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="15"/>
+      <c r="H109" s="15"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" s="11"/>
+      <c r="B110" s="16"/>
+      <c r="C110" s="16"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="16"/>
+      <c r="F110" s="16"/>
+      <c r="G110" s="16"/>
+      <c r="H110" s="16"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B111" s="20"/>
+      <c r="C111" s="21"/>
+      <c r="D111" s="21"/>
+      <c r="E111" s="21"/>
+      <c r="F111" s="21"/>
+      <c r="G111" s="21"/>
+      <c r="H111" s="21"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B112" s="20"/>
+      <c r="C112" s="21"/>
+      <c r="D112" s="21"/>
+      <c r="E112" s="21"/>
+      <c r="F112" s="21"/>
+      <c r="G112" s="21"/>
+      <c r="H112" s="21"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B113" s="20"/>
+      <c r="C113" s="21"/>
+      <c r="D113" s="21"/>
+      <c r="E113" s="21"/>
+      <c r="F113" s="21"/>
+      <c r="G113" s="21"/>
+      <c r="H113" s="21"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B114" s="20"/>
+      <c r="C114" s="21"/>
+      <c r="D114" s="21"/>
+      <c r="E114" s="21"/>
+      <c r="F114" s="21"/>
+      <c r="G114" s="21"/>
+      <c r="H114" s="21"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B115" s="20"/>
+      <c r="C115" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D115" s="21"/>
+      <c r="E115" s="21"/>
+      <c r="F115" s="21"/>
+      <c r="G115" s="21"/>
+      <c r="H115" s="21"/>
+    </row>
+    <row r="118" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A118" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118" s="20"/>
+      <c r="C118" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+    </row>
+    <row r="119" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A119" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B119" s="23"/>
+      <c r="C119" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E119" s="4"/>
+      <c r="F119" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G119" s="3"/>
+      <c r="H119" s="4"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" s="20"/>
+      <c r="C120" s="21"/>
+      <c r="D120" s="21"/>
+      <c r="E120" s="21"/>
+      <c r="F120" s="21"/>
+      <c r="G120" s="21"/>
+      <c r="H120" s="21"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" s="20"/>
+      <c r="C121" s="21"/>
+      <c r="D121" s="21"/>
+      <c r="E121" s="21"/>
+      <c r="F121" s="21"/>
+      <c r="G121" s="21"/>
+      <c r="H121" s="21"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B122" s="20"/>
+      <c r="C122" s="21"/>
+      <c r="D122" s="21"/>
+      <c r="E122" s="21"/>
+      <c r="F122" s="21"/>
+      <c r="G122" s="21"/>
+      <c r="H122" s="21"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B109" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C109" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D109" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E109" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F109" s="11"/>
-      <c r="G109" s="11"/>
-      <c r="H109" s="11"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A110" s="9">
+      <c r="B123" s="20"/>
+      <c r="C123" s="21"/>
+      <c r="D123" s="21"/>
+      <c r="E123" s="21"/>
+      <c r="F123" s="21"/>
+      <c r="G123" s="21"/>
+      <c r="H123" s="21"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B110" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C110" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="D110" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E110" s="15"/>
-      <c r="F110" s="15"/>
-      <c r="G110" s="15"/>
-      <c r="H110" s="15"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" s="11"/>
-      <c r="B111" s="16"/>
-      <c r="C111" s="16"/>
-      <c r="D111" s="11"/>
-      <c r="E111" s="16"/>
-      <c r="F111" s="16"/>
-      <c r="G111" s="16"/>
-      <c r="H111" s="16"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="B112" s="18"/>
-      <c r="C112" s="19"/>
-      <c r="D112" s="19"/>
-      <c r="E112" s="19"/>
-      <c r="F112" s="19"/>
-      <c r="G112" s="19"/>
-      <c r="H112" s="19"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B113" s="18"/>
-      <c r="C113" s="19"/>
-      <c r="D113" s="19"/>
-      <c r="E113" s="19"/>
-      <c r="F113" s="19"/>
-      <c r="G113" s="19"/>
-      <c r="H113" s="19"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B114" s="18"/>
-      <c r="C114" s="19"/>
-      <c r="D114" s="19"/>
-      <c r="E114" s="19"/>
-      <c r="F114" s="19"/>
-      <c r="G114" s="19"/>
-      <c r="H114" s="19"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="B115" s="18"/>
-      <c r="C115" s="19"/>
-      <c r="D115" s="19"/>
-      <c r="E115" s="19"/>
-      <c r="F115" s="19"/>
-      <c r="G115" s="19"/>
-      <c r="H115" s="19"/>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="B116" s="18"/>
-      <c r="C116" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="D116" s="19"/>
-      <c r="E116" s="19"/>
-      <c r="F116" s="19"/>
-      <c r="G116" s="19"/>
-      <c r="H116" s="19"/>
-    </row>
-    <row r="119" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A119" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B119" s="18"/>
-      <c r="C119" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
-      <c r="H119" s="1"/>
-    </row>
-    <row r="120" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A120" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B120" s="21"/>
-      <c r="C120" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D120" s="3" t="s">
+      <c r="B124" s="20"/>
+      <c r="C124" s="21"/>
+      <c r="D124" s="21"/>
+      <c r="E124" s="21"/>
+      <c r="F124" s="21"/>
+      <c r="G124" s="21"/>
+      <c r="H124" s="21"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B125" s="20"/>
+      <c r="C125" s="21"/>
+      <c r="D125" s="21"/>
+      <c r="E125" s="21"/>
+      <c r="F125" s="21"/>
+      <c r="G125" s="21"/>
+      <c r="H125" s="21"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F126" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H126" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127" s="9">
+        <v>1</v>
+      </c>
+      <c r="B127" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E120" s="4"/>
-      <c r="F120" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G120" s="3"/>
-      <c r="H120" s="4"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B121" s="18"/>
-      <c r="C121" s="19"/>
-      <c r="D121" s="19"/>
-      <c r="E121" s="19"/>
-      <c r="F121" s="19"/>
-      <c r="G121" s="19"/>
-      <c r="H121" s="19"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B122" s="18"/>
-      <c r="C122" s="19"/>
-      <c r="D122" s="19"/>
-      <c r="E122" s="19"/>
-      <c r="F122" s="19"/>
-      <c r="G122" s="19"/>
-      <c r="H122" s="19"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A123" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B123" s="18"/>
-      <c r="C123" s="19"/>
-      <c r="D123" s="19"/>
-      <c r="E123" s="19"/>
-      <c r="F123" s="19"/>
-      <c r="G123" s="19"/>
-      <c r="H123" s="19"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A124" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B124" s="18"/>
-      <c r="C124" s="19"/>
-      <c r="D124" s="19"/>
-      <c r="E124" s="19"/>
-      <c r="F124" s="19"/>
-      <c r="G124" s="19"/>
-      <c r="H124" s="19"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A125" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B125" s="18"/>
-      <c r="C125" s="19"/>
-      <c r="D125" s="19"/>
-      <c r="E125" s="19"/>
-      <c r="F125" s="19"/>
-      <c r="G125" s="19"/>
-      <c r="H125" s="19"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B126" s="18"/>
-      <c r="C126" s="19"/>
-      <c r="D126" s="19"/>
-      <c r="E126" s="19"/>
-      <c r="F126" s="19"/>
-      <c r="G126" s="19"/>
-      <c r="H126" s="19"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C127" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D127" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E127" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F127" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G127" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H127" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="C127" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G127" s="9"/>
+      <c r="H127" s="9"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="E128" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="G128" s="9"/>
       <c r="H128" s="9"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="9">
-        <v>3</v>
-      </c>
-      <c r="B129" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C129" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D129" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E129" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F129" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="G129" s="9"/>
-      <c r="H129" s="9"/>
+      <c r="A129" s="11"/>
+      <c r="B129" s="12"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11"/>
+      <c r="G129" s="11"/>
+      <c r="H129" s="11"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="11"/>
-      <c r="B130" s="12"/>
-      <c r="C130" s="11"/>
-      <c r="D130" s="12"/>
-      <c r="E130" s="11"/>
-      <c r="F130" s="11"/>
-      <c r="G130" s="11"/>
-      <c r="H130" s="11"/>
+      <c r="A130" s="9"/>
+      <c r="B130" s="10"/>
+      <c r="C130" s="10"/>
+      <c r="D130" s="10"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="9"/>
+      <c r="H130" s="9"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="9"/>
-      <c r="B131" s="10"/>
-      <c r="C131" s="10"/>
-      <c r="D131" s="10"/>
-      <c r="E131" s="9"/>
-      <c r="F131" s="9"/>
-      <c r="G131" s="9"/>
-      <c r="H131" s="9"/>
+      <c r="A131" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B131" s="20"/>
+      <c r="C131" s="21"/>
+      <c r="D131" s="21"/>
+      <c r="E131" s="21"/>
+      <c r="F131" s="21"/>
+      <c r="G131" s="21"/>
+      <c r="H131" s="21"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="18" t="s">
+      <c r="A132" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="B132" s="18"/>
-      <c r="C132" s="19"/>
-      <c r="D132" s="19"/>
-      <c r="E132" s="19"/>
-      <c r="F132" s="19"/>
-      <c r="G132" s="19"/>
-      <c r="H132" s="19"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="21"/>
+      <c r="D132" s="21"/>
+      <c r="E132" s="21"/>
+      <c r="F132" s="21"/>
+      <c r="G132" s="21"/>
+      <c r="H132" s="21"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133" s="18" t="s">
+      <c r="A133" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="B133" s="18"/>
-      <c r="C133" s="19"/>
-      <c r="D133" s="19"/>
-      <c r="E133" s="19"/>
-      <c r="F133" s="19"/>
-      <c r="G133" s="19"/>
-      <c r="H133" s="19"/>
+      <c r="B133" s="20"/>
+      <c r="C133" s="21"/>
+      <c r="D133" s="21"/>
+      <c r="E133" s="21"/>
+      <c r="F133" s="21"/>
+      <c r="G133" s="21"/>
+      <c r="H133" s="21"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" s="18" t="s">
+      <c r="A134" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B134" s="18"/>
-      <c r="C134" s="19"/>
-      <c r="D134" s="19"/>
-      <c r="E134" s="19"/>
-      <c r="F134" s="19"/>
-      <c r="G134" s="19"/>
-      <c r="H134" s="19"/>
+      <c r="B134" s="20"/>
+      <c r="C134" s="21"/>
+      <c r="D134" s="21"/>
+      <c r="E134" s="21"/>
+      <c r="F134" s="21"/>
+      <c r="G134" s="21"/>
+      <c r="H134" s="21"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A135" s="18" t="s">
+      <c r="A135" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B135" s="18"/>
-      <c r="C135" s="19"/>
-      <c r="D135" s="19"/>
-      <c r="E135" s="19"/>
-      <c r="F135" s="19"/>
-      <c r="G135" s="19"/>
-      <c r="H135" s="19"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="B136" s="18"/>
-      <c r="C136" s="19"/>
-      <c r="D136" s="19"/>
-      <c r="E136" s="19"/>
-      <c r="F136" s="19"/>
-      <c r="G136" s="19"/>
-      <c r="H136" s="19"/>
-    </row>
-    <row r="139" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A139" s="18" t="s">
+      <c r="B135" s="20"/>
+      <c r="C135" s="21"/>
+      <c r="D135" s="21"/>
+      <c r="E135" s="21"/>
+      <c r="F135" s="21"/>
+      <c r="G135" s="21"/>
+      <c r="H135" s="21"/>
+    </row>
+    <row r="138" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A138" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B139" s="18"/>
-      <c r="C139" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E139" s="1"/>
-      <c r="F139" s="1"/>
-      <c r="G139" s="1"/>
-      <c r="H139" s="1"/>
+      <c r="B138" s="20"/>
+      <c r="C138" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B139" s="23"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="3"/>
+      <c r="G139" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H139" s="6"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B140" s="21"/>
-      <c r="C140" s="2"/>
-      <c r="D140" s="3"/>
-      <c r="E140" s="3"/>
-      <c r="F140" s="3"/>
-      <c r="G140" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H140" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="B140" s="20"/>
+      <c r="C140" s="21"/>
+      <c r="D140" s="21"/>
+      <c r="E140" s="21"/>
+      <c r="F140" s="21"/>
+      <c r="G140" s="21"/>
+      <c r="H140" s="21"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B141" s="18"/>
-      <c r="C141" s="19"/>
-      <c r="D141" s="19"/>
-      <c r="E141" s="19"/>
-      <c r="F141" s="19"/>
-      <c r="G141" s="19"/>
-      <c r="H141" s="19"/>
+      <c r="A141" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B141" s="20"/>
+      <c r="C141" s="21"/>
+      <c r="D141" s="21"/>
+      <c r="E141" s="21"/>
+      <c r="F141" s="21"/>
+      <c r="G141" s="21"/>
+      <c r="H141" s="21"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B142" s="18"/>
-      <c r="C142" s="19"/>
-      <c r="D142" s="19"/>
-      <c r="E142" s="19"/>
-      <c r="F142" s="19"/>
-      <c r="G142" s="19"/>
-      <c r="H142" s="19"/>
+      <c r="A142" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B142" s="20"/>
+      <c r="C142" s="21"/>
+      <c r="D142" s="21"/>
+      <c r="E142" s="21"/>
+      <c r="F142" s="21"/>
+      <c r="G142" s="21"/>
+      <c r="H142" s="21"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A143" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B143" s="18"/>
-      <c r="C143" s="19"/>
-      <c r="D143" s="19"/>
-      <c r="E143" s="19"/>
-      <c r="F143" s="19"/>
-      <c r="G143" s="19"/>
-      <c r="H143" s="19"/>
+      <c r="A143" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B143" s="20"/>
+      <c r="C143" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D143" s="21"/>
+      <c r="E143" s="21"/>
+      <c r="F143" s="21"/>
+      <c r="G143" s="21"/>
+      <c r="H143" s="21"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A144" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B144" s="18"/>
-      <c r="C144" s="19" t="s">
+      <c r="A144" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B144" s="20"/>
+      <c r="C144" s="21"/>
+      <c r="D144" s="21"/>
+      <c r="E144" s="21"/>
+      <c r="F144" s="21"/>
+      <c r="G144" s="21"/>
+      <c r="H144" s="21"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B145" s="20"/>
+      <c r="C145" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="D145" s="21"/>
+      <c r="E145" s="21"/>
+      <c r="F145" s="21"/>
+      <c r="G145" s="21"/>
+      <c r="H145" s="21"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B146" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C146" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D146" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E146" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F146" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G146" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H146" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A147" s="9">
+        <v>1</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D147" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="D144" s="19"/>
-      <c r="E144" s="19"/>
-      <c r="F144" s="19"/>
-      <c r="G144" s="19"/>
-      <c r="H144" s="19"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A145" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B145" s="18"/>
-      <c r="C145" s="19"/>
-      <c r="D145" s="19"/>
-      <c r="E145" s="19"/>
-      <c r="F145" s="19"/>
-      <c r="G145" s="19"/>
-      <c r="H145" s="19"/>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A146" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B146" s="18"/>
-      <c r="C146" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="D146" s="19"/>
-      <c r="E146" s="19"/>
-      <c r="F146" s="19"/>
-      <c r="G146" s="19"/>
-      <c r="H146" s="19"/>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A147" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B147" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C147" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D147" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E147" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F147" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G147" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H147" s="17" t="s">
-        <v>137</v>
-      </c>
+      <c r="E147" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F147" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G147" s="9"/>
+      <c r="H147" s="9"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>162</v>
+        <v>69</v>
       </c>
       <c r="E148" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F148" s="9" t="s">
-        <v>26</v>
-      </c>
+      <c r="F148" s="9"/>
       <c r="G148" s="9"/>
-      <c r="H148" s="9"/>
+      <c r="H148" s="9" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="9">
-        <v>2</v>
-      </c>
-      <c r="B149" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C149" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D149" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B149" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C149" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D149" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E149" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F149" s="9"/>
-      <c r="G149" s="9"/>
-      <c r="H149" s="9" t="s">
-        <v>29</v>
-      </c>
+      <c r="E149" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F149" s="11"/>
+      <c r="G149" s="11"/>
+      <c r="H149" s="11"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>31</v>
+        <v>161</v>
       </c>
       <c r="D150" s="11" t="s">
-        <v>69</v>
+        <v>162</v>
       </c>
       <c r="E150" s="11" t="s">
-        <v>25</v>
+        <v>163</v>
       </c>
       <c r="F150" s="11"/>
-      <c r="G150" s="11"/>
-      <c r="H150" s="11"/>
+      <c r="G150" s="9"/>
+      <c r="H150" s="9"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B151" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C151" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="C151" s="11" t="s">
+      <c r="D151" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="D151" s="11" t="s">
+      <c r="E151" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="E151" s="11" t="s">
+      <c r="F151" s="11"/>
+      <c r="G151" s="11"/>
+      <c r="H151" s="11"/>
+    </row>
+    <row r="152" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A152" s="9">
+        <v>6</v>
+      </c>
+      <c r="B152" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="F151" s="11"/>
-      <c r="G151" s="9"/>
-      <c r="H151" s="9"/>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A152" s="9">
-        <v>5</v>
-      </c>
-      <c r="B152" s="11" t="s">
+      <c r="C152" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="C152" s="11" t="s">
+      <c r="D152" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E152" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="D152" s="11" t="s">
+      <c r="F152" s="11"/>
+      <c r="G152" s="9"/>
+      <c r="H152" s="9"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153" s="9">
+        <v>7</v>
+      </c>
+      <c r="B153" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C153" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D153" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E153" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F153" s="11"/>
+      <c r="G153" s="11"/>
+      <c r="H153" s="11"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A154" s="11">
+        <v>8</v>
+      </c>
+      <c r="B154" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C154" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D154" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="E154" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="F154" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="G154" s="11"/>
+      <c r="H154" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A155" s="9">
+        <v>8</v>
+      </c>
+      <c r="B155" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C155" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D155" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="E152" s="11" t="s">
+      <c r="E155" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F155" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="F152" s="11"/>
-      <c r="G152" s="11"/>
-      <c r="H152" s="11"/>
-    </row>
-    <row r="153" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A153" s="9">
-        <v>6</v>
-      </c>
-      <c r="B153" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="C153" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="D153" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="E153" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="F153" s="11"/>
-      <c r="G153" s="9"/>
-      <c r="H153" s="9"/>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A154" s="9">
-        <v>7</v>
-      </c>
-      <c r="B154" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="C154" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="D154" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="E154" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="F154" s="11"/>
-      <c r="G154" s="11"/>
-      <c r="H154" s="11"/>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A155" s="11">
-        <v>8</v>
-      </c>
-      <c r="B155" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="C155" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="D155" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="E155" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="F155" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="G155" s="11"/>
-      <c r="H155" s="11" t="s">
-        <v>190</v>
-      </c>
+      <c r="G155" s="9"/>
+      <c r="H155" s="9"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="D156" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E156" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F156" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="E156" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="F156" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="G156" s="9"/>
-      <c r="H156" s="9"/>
+      <c r="G156" s="11"/>
+      <c r="H156" s="11"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="D157" s="11" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E157" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="F157" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="G157" s="11"/>
-      <c r="H157" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="F157" s="11"/>
+      <c r="G157" s="9"/>
+      <c r="H157" s="9"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A158" s="9">
-        <v>10</v>
-      </c>
-      <c r="B158" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="C158" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="D158" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="E158" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="F158" s="11"/>
+      <c r="A158" s="9"/>
+      <c r="B158" s="9"/>
+      <c r="C158" s="9"/>
+      <c r="D158" s="9"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="9"/>
       <c r="G158" s="9"/>
       <c r="H158" s="9"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A159" s="9"/>
-      <c r="B159" s="9"/>
-      <c r="C159" s="9"/>
-      <c r="D159" s="9"/>
-      <c r="E159" s="9"/>
-      <c r="F159" s="9"/>
-      <c r="G159" s="9"/>
-      <c r="H159" s="9"/>
+      <c r="A159" s="11"/>
+      <c r="B159" s="11"/>
+      <c r="C159" s="11"/>
+      <c r="D159" s="11"/>
+      <c r="E159" s="11"/>
+      <c r="F159" s="11"/>
+      <c r="G159" s="11"/>
+      <c r="H159" s="11"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A160" s="11"/>
-      <c r="B160" s="11"/>
-      <c r="C160" s="11"/>
-      <c r="D160" s="11"/>
-      <c r="E160" s="11"/>
-      <c r="F160" s="11"/>
-      <c r="G160" s="11"/>
-      <c r="H160" s="11"/>
+      <c r="A160" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B160" s="20"/>
+      <c r="C160" s="21"/>
+      <c r="D160" s="21"/>
+      <c r="E160" s="21"/>
+      <c r="F160" s="21"/>
+      <c r="G160" s="21"/>
+      <c r="H160" s="21"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A161" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="B161" s="18"/>
-      <c r="C161" s="19"/>
-      <c r="D161" s="19"/>
-      <c r="E161" s="19"/>
-      <c r="F161" s="19"/>
-      <c r="G161" s="19"/>
-      <c r="H161" s="19"/>
+      <c r="A161" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B161" s="20"/>
+      <c r="C161" s="21"/>
+      <c r="D161" s="21"/>
+      <c r="E161" s="21"/>
+      <c r="F161" s="21"/>
+      <c r="G161" s="21"/>
+      <c r="H161" s="21"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A162" s="18" t="s">
+      <c r="A162" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="B162" s="18"/>
-      <c r="C162" s="19"/>
-      <c r="D162" s="19"/>
-      <c r="E162" s="19"/>
-      <c r="F162" s="19"/>
-      <c r="G162" s="19"/>
-      <c r="H162" s="19"/>
+      <c r="B162" s="20"/>
+      <c r="C162" s="21"/>
+      <c r="D162" s="21"/>
+      <c r="E162" s="21"/>
+      <c r="F162" s="21"/>
+      <c r="G162" s="21"/>
+      <c r="H162" s="21"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A163" s="18" t="s">
+      <c r="A163" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B163" s="18"/>
-      <c r="C163" s="19"/>
-      <c r="D163" s="19"/>
-      <c r="E163" s="19"/>
-      <c r="F163" s="19"/>
-      <c r="G163" s="19"/>
-      <c r="H163" s="19"/>
+      <c r="B163" s="20"/>
+      <c r="C163" s="21"/>
+      <c r="D163" s="21"/>
+      <c r="E163" s="21"/>
+      <c r="F163" s="21"/>
+      <c r="G163" s="21"/>
+      <c r="H163" s="21"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A164" s="18" t="s">
+      <c r="A164" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B164" s="18"/>
-      <c r="C164" s="19"/>
-      <c r="D164" s="19"/>
-      <c r="E164" s="19"/>
-      <c r="F164" s="19"/>
-      <c r="G164" s="19"/>
-      <c r="H164" s="19"/>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A165" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="B165" s="18"/>
-      <c r="C165" s="19"/>
-      <c r="D165" s="19"/>
-      <c r="E165" s="19"/>
-      <c r="F165" s="19"/>
-      <c r="G165" s="19"/>
-      <c r="H165" s="19"/>
+      <c r="B164" s="20"/>
+      <c r="C164" s="21"/>
+      <c r="D164" s="21"/>
+      <c r="E164" s="21"/>
+      <c r="F164" s="21"/>
+      <c r="G164" s="21"/>
+      <c r="H164" s="21"/>
+    </row>
+    <row r="167" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A167" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B167" s="20"/>
+      <c r="C167" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1"/>
+      <c r="H167" s="1"/>
+    </row>
+    <row r="168" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A168" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B168" s="23"/>
+      <c r="C168" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E168" s="4"/>
+      <c r="F168" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G168" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H168" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A169" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B169" s="20"/>
+      <c r="C169" s="21"/>
+      <c r="D169" s="21"/>
+      <c r="E169" s="21"/>
+      <c r="F169" s="21"/>
+      <c r="G169" s="21"/>
+      <c r="H169" s="21"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A170" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B170" s="20"/>
+      <c r="C170" s="21"/>
+      <c r="D170" s="21"/>
+      <c r="E170" s="21"/>
+      <c r="F170" s="21"/>
+      <c r="G170" s="21"/>
+      <c r="H170" s="21"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A171" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B171" s="20"/>
+      <c r="C171" s="21"/>
+      <c r="D171" s="21"/>
+      <c r="E171" s="21"/>
+      <c r="F171" s="21"/>
+      <c r="G171" s="21"/>
+      <c r="H171" s="21"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A172" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B172" s="20"/>
+      <c r="C172" s="21"/>
+      <c r="D172" s="21"/>
+      <c r="E172" s="21"/>
+      <c r="F172" s="21"/>
+      <c r="G172" s="21"/>
+      <c r="H172" s="21"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A173" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B173" s="20"/>
+      <c r="C173" s="21"/>
+      <c r="D173" s="21"/>
+      <c r="E173" s="21"/>
+      <c r="F173" s="21"/>
+      <c r="G173" s="21"/>
+      <c r="H173" s="21"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A174" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B174" s="20"/>
+      <c r="C174" s="21"/>
+      <c r="D174" s="21"/>
+      <c r="E174" s="21"/>
+      <c r="F174" s="21"/>
+      <c r="G174" s="21"/>
+      <c r="H174" s="21"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A175" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B175" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C175" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D175" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E175" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F175" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G175" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H175" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A176" s="9">
+        <v>1</v>
+      </c>
+      <c r="B176" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C176" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D176" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E176" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F176" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G176" s="9"/>
+      <c r="H176" s="9"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A177" s="9">
+        <v>3</v>
+      </c>
+      <c r="B177" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C177" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D177" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E177" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F177" s="9"/>
+      <c r="G177" s="9"/>
+      <c r="H177" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A178" s="11">
+        <v>4</v>
+      </c>
+      <c r="B178" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C178" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D178" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E178" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F178" s="11"/>
+      <c r="G178" s="11"/>
+      <c r="H178" s="11"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A179" s="9">
+        <v>5</v>
+      </c>
+      <c r="B179" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C179" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D179" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E179" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F179" s="9"/>
+      <c r="G179" s="9"/>
+      <c r="H179" s="9"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A180" s="11">
+        <v>6</v>
+      </c>
+      <c r="B180" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C180" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D180" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E180" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F180" s="11"/>
+      <c r="G180" s="11"/>
+      <c r="H180" s="11"/>
+    </row>
+    <row r="181" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A181" s="9">
+        <v>7</v>
+      </c>
+      <c r="B181" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C181" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D181" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E181" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F181" s="9"/>
+      <c r="G181" s="9"/>
+      <c r="H181" s="9"/>
+    </row>
+    <row r="182" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A182" s="11">
+        <v>8</v>
+      </c>
+      <c r="B182" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C182" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="D182" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E182" s="11"/>
+      <c r="F182" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G182" s="11"/>
+      <c r="H182" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A183" s="9">
+        <v>9</v>
+      </c>
+      <c r="B183" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C183" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D183" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E183" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F183" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G183" s="9"/>
+      <c r="H183" s="9"/>
+    </row>
+    <row r="184" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A184" s="11">
+        <v>10</v>
+      </c>
+      <c r="B184" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C184" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D184" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E184" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F184" s="11"/>
+      <c r="G184" s="11"/>
+      <c r="H184" s="11"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A185" s="9">
+        <v>11</v>
+      </c>
+      <c r="B185" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C185" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D185" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E185" s="9"/>
+      <c r="F185" s="9"/>
+      <c r="G185" s="9"/>
+      <c r="H185" s="9"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A186" s="11">
+        <v>12</v>
+      </c>
+      <c r="B186" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C186" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="D186" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E186" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F186" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G186" s="11">
+        <v>0</v>
+      </c>
+      <c r="H186" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A187" s="9"/>
+      <c r="B187" s="10"/>
+      <c r="C187" s="9"/>
+      <c r="D187" s="10"/>
+      <c r="E187" s="9"/>
+      <c r="F187" s="9"/>
+      <c r="G187" s="9"/>
+      <c r="H187" s="9"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A188" s="11"/>
+      <c r="B188" s="12"/>
+      <c r="C188" s="12"/>
+      <c r="D188" s="12"/>
+      <c r="E188" s="11"/>
+      <c r="F188" s="11"/>
+      <c r="G188" s="11"/>
+      <c r="H188" s="11"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A189" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B189" s="20"/>
+      <c r="C189" s="21"/>
+      <c r="D189" s="21"/>
+      <c r="E189" s="21"/>
+      <c r="F189" s="21"/>
+      <c r="G189" s="21"/>
+      <c r="H189" s="21"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A190" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B190" s="20"/>
+      <c r="C190" s="21"/>
+      <c r="D190" s="21"/>
+      <c r="E190" s="21"/>
+      <c r="F190" s="21"/>
+      <c r="G190" s="21"/>
+      <c r="H190" s="21"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A191" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B191" s="20"/>
+      <c r="C191" s="21"/>
+      <c r="D191" s="21"/>
+      <c r="E191" s="21"/>
+      <c r="F191" s="21"/>
+      <c r="G191" s="21"/>
+      <c r="H191" s="21"/>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A192" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B192" s="20"/>
+      <c r="C192" s="21"/>
+      <c r="D192" s="21"/>
+      <c r="E192" s="21"/>
+      <c r="F192" s="21"/>
+      <c r="G192" s="21"/>
+      <c r="H192" s="21"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A193" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B193" s="20"/>
+      <c r="C193" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="D193" s="25"/>
+      <c r="E193" s="25"/>
+      <c r="F193" s="25"/>
+      <c r="G193" s="25"/>
+      <c r="H193" s="26"/>
+    </row>
+    <row r="196" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A196" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B196" s="20"/>
+      <c r="C196" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E196" s="1"/>
+      <c r="F196" s="1"/>
+      <c r="G196" s="1"/>
+      <c r="H196" s="1"/>
+    </row>
+    <row r="197" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A197" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B197" s="23"/>
+      <c r="C197" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E197" s="4"/>
+      <c r="F197" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G197" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H197" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A198" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B198" s="20"/>
+      <c r="C198" s="21"/>
+      <c r="D198" s="21"/>
+      <c r="E198" s="21"/>
+      <c r="F198" s="21"/>
+      <c r="G198" s="21"/>
+      <c r="H198" s="21"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A199" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B199" s="20"/>
+      <c r="C199" s="21"/>
+      <c r="D199" s="21"/>
+      <c r="E199" s="21"/>
+      <c r="F199" s="21"/>
+      <c r="G199" s="21"/>
+      <c r="H199" s="21"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A200" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B200" s="20"/>
+      <c r="C200" s="21"/>
+      <c r="D200" s="21"/>
+      <c r="E200" s="21"/>
+      <c r="F200" s="21"/>
+      <c r="G200" s="21"/>
+      <c r="H200" s="21"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A201" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B201" s="20"/>
+      <c r="C201" s="21"/>
+      <c r="D201" s="21"/>
+      <c r="E201" s="21"/>
+      <c r="F201" s="21"/>
+      <c r="G201" s="21"/>
+      <c r="H201" s="21"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A202" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B202" s="20"/>
+      <c r="C202" s="21"/>
+      <c r="D202" s="21"/>
+      <c r="E202" s="21"/>
+      <c r="F202" s="21"/>
+      <c r="G202" s="21"/>
+      <c r="H202" s="21"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A203" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B203" s="20"/>
+      <c r="C203" s="21"/>
+      <c r="D203" s="21"/>
+      <c r="E203" s="21"/>
+      <c r="F203" s="21"/>
+      <c r="G203" s="21"/>
+      <c r="H203" s="21"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A204" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B204" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C204" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D204" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E204" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F204" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G204" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H204" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A205" s="9">
+        <v>1</v>
+      </c>
+      <c r="B205" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C205" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D205" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E205" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F205" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G205" s="9"/>
+      <c r="H205" s="9"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A206" s="9">
+        <v>3</v>
+      </c>
+      <c r="B206" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C206" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D206" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E206" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F206" s="9"/>
+      <c r="G206" s="9"/>
+      <c r="H206" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A207" s="11">
+        <v>4</v>
+      </c>
+      <c r="B207" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C207" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D207" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E207" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F207" s="11"/>
+      <c r="G207" s="11"/>
+      <c r="H207" s="11"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A208" s="9">
+        <v>5</v>
+      </c>
+      <c r="B208" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C208" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D208" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E208" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F208" s="9"/>
+      <c r="G208" s="9"/>
+      <c r="H208" s="9"/>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A209" s="11">
+        <v>6</v>
+      </c>
+      <c r="B209" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C209" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D209" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E209" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F209" s="11"/>
+      <c r="G209" s="11"/>
+      <c r="H209" s="11"/>
+    </row>
+    <row r="210" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A210" s="9">
+        <v>7</v>
+      </c>
+      <c r="B210" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C210" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D210" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E210" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F210" s="9"/>
+      <c r="G210" s="9"/>
+      <c r="H210" s="9"/>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A211" s="11">
+        <v>8</v>
+      </c>
+      <c r="B211" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C211" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D211" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E211" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F211" s="11">
+        <v>1</v>
+      </c>
+      <c r="G211" s="11"/>
+      <c r="H211" s="11"/>
+    </row>
+    <row r="212" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A212" s="11">
+        <v>10</v>
+      </c>
+      <c r="B212" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C212" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D212" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E212" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F212" s="11">
+        <v>1</v>
+      </c>
+      <c r="G212" s="11"/>
+      <c r="H212" s="11"/>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A213" s="11"/>
+      <c r="B213" s="12"/>
+      <c r="C213" s="11"/>
+      <c r="D213" s="12"/>
+      <c r="E213" s="11"/>
+      <c r="F213" s="11"/>
+      <c r="G213" s="11"/>
+      <c r="H213" s="11"/>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A214" s="9"/>
+      <c r="B214" s="10"/>
+      <c r="C214" s="10"/>
+      <c r="D214" s="10"/>
+      <c r="E214" s="9"/>
+      <c r="F214" s="9"/>
+      <c r="G214" s="9"/>
+      <c r="H214" s="9"/>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A215" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B215" s="20"/>
+      <c r="C215" s="21"/>
+      <c r="D215" s="21"/>
+      <c r="E215" s="21"/>
+      <c r="F215" s="21"/>
+      <c r="G215" s="21"/>
+      <c r="H215" s="21"/>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A216" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B216" s="20"/>
+      <c r="C216" s="21"/>
+      <c r="D216" s="21"/>
+      <c r="E216" s="21"/>
+      <c r="F216" s="21"/>
+      <c r="G216" s="21"/>
+      <c r="H216" s="21"/>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A217" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B217" s="20"/>
+      <c r="C217" s="21"/>
+      <c r="D217" s="21"/>
+      <c r="E217" s="21"/>
+      <c r="F217" s="21"/>
+      <c r="G217" s="21"/>
+      <c r="H217" s="21"/>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A218" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B218" s="20"/>
+      <c r="C218" s="21"/>
+      <c r="D218" s="21"/>
+      <c r="E218" s="21"/>
+      <c r="F218" s="21"/>
+      <c r="G218" s="21"/>
+      <c r="H218" s="21"/>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A219" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B219" s="20"/>
+      <c r="C219" s="21"/>
+      <c r="D219" s="21"/>
+      <c r="E219" s="21"/>
+      <c r="F219" s="21"/>
+      <c r="G219" s="21"/>
+      <c r="H219" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="134">
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="C164:H164"/>
-    <mergeCell ref="A165:B165"/>
-    <mergeCell ref="C165:H165"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="C145:H145"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="C146:H146"/>
-    <mergeCell ref="A161:B161"/>
-    <mergeCell ref="C161:H161"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="C162:H162"/>
-    <mergeCell ref="A163:B163"/>
-    <mergeCell ref="C163:H163"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="C141:H141"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="C142:H142"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="C143:H143"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="C144:H144"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="C136:H136"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="C133:H133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="C134:H134"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="C135:H135"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="C125:H125"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="C126:H126"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="C132:H132"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="C122:H122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="C123:H123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="C124:H124"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="C116:H116"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="C121:H121"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="C113:H113"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="C114:H114"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="C115:H115"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C99:H99"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="C112:H112"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:H95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:H96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:H97"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:H89"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:H94"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:H86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:H87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:H88"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:H71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:H72"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:H85"/>
+  <mergeCells count="182">
+    <mergeCell ref="A216:B216"/>
+    <mergeCell ref="C216:H216"/>
+    <mergeCell ref="A217:B217"/>
+    <mergeCell ref="C217:H217"/>
+    <mergeCell ref="A218:B218"/>
+    <mergeCell ref="C218:H218"/>
+    <mergeCell ref="A219:B219"/>
+    <mergeCell ref="C219:H219"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="C200:H200"/>
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="C201:H201"/>
+    <mergeCell ref="A202:B202"/>
+    <mergeCell ref="C202:H202"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="C203:H203"/>
+    <mergeCell ref="A215:B215"/>
+    <mergeCell ref="C215:H215"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="C192:H192"/>
+    <mergeCell ref="A193:B193"/>
+    <mergeCell ref="C193:H193"/>
+    <mergeCell ref="A196:B196"/>
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="A198:B198"/>
+    <mergeCell ref="C198:H198"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="C199:H199"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="C173:H173"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="C174:H174"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="C189:H189"/>
+    <mergeCell ref="A190:B190"/>
+    <mergeCell ref="C190:H190"/>
+    <mergeCell ref="A191:B191"/>
+    <mergeCell ref="C191:H191"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A169:B169"/>
+    <mergeCell ref="C169:H169"/>
+    <mergeCell ref="A170:B170"/>
+    <mergeCell ref="C170:H170"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="C171:H171"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="C172:H172"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:H58"/>
     <mergeCell ref="A68:B68"/>
     <mergeCell ref="C68:H68"/>
     <mergeCell ref="A69:B69"/>
@@ -4074,42 +4980,92 @@
     <mergeCell ref="A66:B66"/>
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="C67:H67"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:H85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:H86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:H87"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:H72"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:H84"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:H94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:H95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:H88"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:H93"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:H112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:H113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:H114"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:H97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:H111"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:H121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:H122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:H123"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:H115"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:H120"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:H135"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:H132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:H133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:H134"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:H124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:H125"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:H131"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:H140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:H141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="C142:H142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="C143:H143"/>
+    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="C163:H163"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="C164:H164"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="C144:H144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="C145:H145"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="C160:H160"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="C161:H161"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="C162:H162"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4122,7 +5078,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B16" sqref="B16:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4131,21 +5087,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="14" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="A1" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
@@ -4154,10 +5110,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>130</v>
+        <v>125</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>129</v>
       </c>
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
@@ -4166,10 +5122,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>131</v>
+        <v>127</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>197</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
@@ -4178,10 +5134,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>136</v>
+        <v>128</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>205</v>
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
@@ -4190,10 +5146,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>183</v>
+        <v>142</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>178</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
@@ -4202,10 +5158,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>148</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>182</v>
+        <v>143</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>177</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
@@ -4214,10 +5170,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>160</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>194</v>
+        <v>155</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>189</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -4225,14 +5181,24 @@
       <c r="F8" s="27"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="27"/>
+      <c r="A9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>204</v>
+      </c>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
       <c r="F9" s="27"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="27"/>
+      <c r="A10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>208</v>
+      </c>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
@@ -4282,6 +5248,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="B16:F16"/>
@@ -4293,11 +5264,6 @@
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/表定义.xlsx
+++ b/表定义.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="214">
   <si>
     <t>表名</t>
   </si>
@@ -465,6 +465,286 @@
   </si>
   <si>
     <t>bs_userrole</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>建表语句列表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>建表语句</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>约束条件/字段说明</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>alias</t>
+  </si>
+  <si>
+    <t>别名</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>建表SQL</t>
+  </si>
+  <si>
+    <t>1 系统固有的不能删除 ，关联插入的不能只能在关联模块联动更新或删除，关联插入的必须以@开头+关联id
+2 手工插入的可删除，手工插入的必须以Z开头</t>
+  </si>
+  <si>
+    <t>权限项</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs_permission</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs_permission</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色权限</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs_rolepermission</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>停职标志</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>addr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>phoneno</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobileno</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1表示已停职，禁止登陆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户在支付宝服务窗、微信公众号绑定时插入</t>
+  </si>
+  <si>
+    <t>用户在支付宝服务窗、微信公众号解除绑定时删除</t>
+  </si>
+  <si>
+    <t>微信用户绑定信息表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wx_binduser</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigint</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录编码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>createtime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>modifyuser</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后修改人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigint</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>modifytime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后修改时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ua2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wxuserid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信用户ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(40)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ua3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wx_binduser</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ia2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效唯一</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>userno</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信设备ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门定义表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs_department</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>departmentno</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>departmentname</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 系统提供的部门不能改编码和名称、只能改别名、描述，不能删除
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>departmentid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs_department</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>departmentalias</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门编码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门别名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门描述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>固有部门</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs_userdepartment</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs_userdepartment</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -497,196 +777,42 @@
   PRIMARY KEY (`id`),
   UNIQUE KEY `userno` (`username`,`userno`)
 ) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT='员工表 ';</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>建表语句列表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>建表语句</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>约束条件/字段说明</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>alias</t>
-  </si>
-  <si>
-    <t>别名</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>建表SQL</t>
-  </si>
-  <si>
-    <t>1 系统固有的不能删除 ，关联插入的不能只能在关联模块联动更新或删除，关联插入的必须以@开头+关联id
-2 手工插入的可删除，手工插入的必须以Z开头</t>
-  </si>
-  <si>
-    <t>权限项</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bs_permission</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bs_permission</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bs_rolepermission</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色权限</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bs_rolepermission</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>停职标志</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>addr</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>phoneno</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobileno</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1表示已停职，禁止登陆</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户在支付宝服务窗、微信公众号绑定时插入</t>
-  </si>
-  <si>
-    <t>用户在支付宝服务窗、微信公众号解除绑定时删除</t>
-  </si>
-  <si>
-    <t>微信用户绑定信息表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>wx_binduser</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bigint</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录编码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>createtime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>modifyuser</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后修改人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bigint</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>modifytime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后修改时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ua2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>wxuserid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信用户ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(40)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ua3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">DROP TABLE IF EXISTS bs_rolepermission;
-CREATE TABLE `bs_rolepermission` (
-  `roleid` bigint(20) NOT NULL AUTO_INCREMENT COMMENT '角色ID',
-  `permission` varchar(40) NOT NULL COMMENT '权限项',
-  UNIQUE KEY `roleid` (`roleid`,`permission`)
-) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT='角色授权';
+  </si>
+  <si>
+    <t xml:space="preserve">DROP TABLE IF EXISTS bs_role;
+CREATE TABLE `bs_role` (
+  `id` bigint(20) NOT NULL AUTO_INCREMENT COMMENT 'ID',
+  `rowstamp` bigint(20) NOT NULL COMMENT '时间戳',
+  `createuser` bigint(20) NOT NULL COMMENT '创建人',
+  `createtime` datetime NOT NULL COMMENT '创建时间',
+  `modifyuser` bigint(20) NOT NULL COMMENT '最后修改人',
+  `modifytime` datetime NOT NULL COMMENT '最后修改时间',
+  `rolecode` varchar(40) DEFAULT NULL COMMENT '角色编码',
+  `rolename` varchar(50) NOT NULL COMMENT '角色名称',
+  `rolealias` varchar(50) NOT NULL COMMENT '角色别名',
+  `remark` varchar(200) DEFAULT NULL COMMENT '角色描述',
+  `fixed` tinyint(4) NOT NULL DEFAULT '0' COMMENT '固有角色',
+  PRIMARY KEY (`id`),
+  UNIQUE KEY `orgid` (`rolecode`,`rolename`,`fixed`)
+) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT='角色定义表';
 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DROP TABLE IF EXISTS bs_userrole;
+CREATE TABLE `bs_userrole` (
+  `id` bigint(20) NOT NULL AUTO_INCREMENT COMMENT 'ID',
+  `rowstamp` bigint(20) NOT NULL COMMENT '时间戳',
+  `createuser` bigint(20) NOT NULL COMMENT '创建人',
+  `createtime` datetime NOT NULL COMMENT '创建时间',
+  `modifyuser` bigint(20) NOT NULL COMMENT '最后修改人',
+  `modifytime` datetime NOT NULL COMMENT '最后修改时间',
+  `userid` bigint(20) NOT NULL COMMENT '员工ID',
+  `roleid` bigint(20) NOT NULL COMMENT '角色ID',
+  `department` varchar(20) DEFAULT NULL COMMENT '所在部门',
+  PRIMARY KEY (`id`),
+  UNIQUE KEY `userid` (`userid`,`roleid`)
+) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT='员工角色表';
+</t>
   </si>
   <si>
     <t xml:space="preserve">DROP TABLE IF EXISTS bs_permission;
@@ -705,47 +831,6 @@
   UNIQUE KEY `permission` (`permission`)
 ) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT='权限项(子系统)';
 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>wx_binduser</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ia2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>有效唯一</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>username</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>userno</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信设备ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DROP TABLE IF EXISTS wx_binduser;
@@ -765,80 +850,6 @@
   UNIQUE KEY `wxbind` (`userno`,`wxuserid`)
 ) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT='微信用户绑定信息表';
 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门定义表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bs_department</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>departmentno</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>departmentname</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1 系统提供的部门不能改编码和名称、只能改别名、描述，不能删除
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>departmentid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bs_department</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">DROP TABLE IF EXISTS bs_role;
-CREATE TABLE `bs_role` (
-  `id` bigint(20) NOT NULL AUTO_INCREMENT COMMENT 'ID',
-  `rowstamp` bigint(20) NOT NULL COMMENT '时间戳',
-  `createuser` bigint(20) NOT NULL COMMENT '创建人',
-  `createtime` datetime NOT NULL COMMENT '创建时间',
-  `modifyuser` bigint(20) NOT NULL COMMENT '最后修改人',
-  `modifytime` datetime NOT NULL COMMENT '最后修改时间',
-  `rolecode` varchar(40) DEFAULT NULL COMMENT '角色编码',
-  `rolename` varchar(50) NOT NULL COMMENT '角色名称',
-  `rolealias` varchar(50) NOT NULL COMMENT '角色别名',
-  `remark` varchar(200) DEFAULT NULL COMMENT '角色描述',
-  `fixed` tinyint(4) NOT NULL DEFAULT '0' COMMENT '固有角色',
-  PRIMARY KEY (`id`),
-  UNIQUE KEY `orgid` (`rolecode`,`rolename`,`fixed`)
-) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT='角色定义表';
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>departmentalias</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门编码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门别名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门描述</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>固有部门</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DROP TABLE IF EXISTS bs_department;
@@ -858,33 +869,6 @@
   UNIQUE KEY `orgid` (`departmentno`,`departmentname`,`fixed`)
 ) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT='部门定义表'; 
 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">DROP TABLE IF EXISTS bs_userrole;
-CREATE TABLE `bs_userrole` (
-  `id` bigint(20) NOT NULL AUTO_INCREMENT COMMENT 'ID',
-  `rowstamp` bigint(20) NOT NULL COMMENT '时间戳',
-  `createuser` bigint(20) NOT NULL COMMENT '创建人',
-  `createtime` datetime NOT NULL COMMENT '创建时间',
-  `modifyuser` bigint(20) NOT NULL COMMENT '最后修改人',
-  `modifytime` datetime NOT NULL COMMENT '最后修改时间',
-  `userid` bigint(20) NOT NULL COMMENT '员工ID',
-  `roleid` bigint(20) NOT NULL COMMENT '角色ID',
-  `department` varchar(20) DEFAULT NULL COMMENT '所在部门',
-  PRIMARY KEY (`id`),
-  UNIQUE KEY `userid` (`userid`,`roleid`)
-) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT='员工角色表';
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bs_userdepartment</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DROP TABLE IF EXISTS bs_userdepartment;
@@ -900,10 +884,40 @@
   PRIMARY KEY (`id`),
   UNIQUE KEY `userid` (`userid`,`departmentid`)
 ) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT='员工部门表';</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bs_userdepartment</t>
+  </si>
+  <si>
+    <t>bs_departmentpermission</t>
+  </si>
+  <si>
+    <t>departmentid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs_rolepermission</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DROP TABLE IF EXISTS bs_rolepermission;
+CREATE TABLE `bs_rolepermission` (
+  `roleid` bigint(20) NOT NULL AUTO_INCREMENT COMMENT '角色ID',
+  `permission` varchar(40) NOT NULL COMMENT '权限项',
+  UNIQUE KEY `roleid` (`roleid`,`permission`)
+) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT='角色授权';
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs_departmentpermission</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DROP TABLE IF EXISTS bs_departmentpermission;
+CREATE TABLE `bs_departmentpermission` (
+  `departmentid` bigint(20) NOT NULL AUTO_INCREMENT COMMENT '部门ID',
+  `permission` varchar(40) NOT NULL COMMENT '权限项',
+ `url` varchar(30) NOT NULL COMMENT '请求路径',
+  UNIQUE KEY `departmentid` (`departmentid`,`permission`)
+) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT='部门授权';</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -911,7 +925,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -965,6 +979,23 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1065,7 +1096,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1108,9 +1139,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1129,14 +1157,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1147,14 +1172,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1471,10 +1508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H219"/>
+  <dimension ref="A1:H239"/>
   <sheetViews>
-    <sheetView topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="C212" sqref="C212"/>
+    <sheetView topLeftCell="A213" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D222" sqref="D222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1505,10 +1542,10 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1843,7 +1880,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>55</v>
@@ -1861,7 +1898,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
@@ -1873,7 +1910,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>57</v>
@@ -1893,7 +1930,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>60</v>
@@ -1916,7 +1953,7 @@
         <v>85</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>62</v>
@@ -1929,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -2121,10 +2158,10 @@
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="23"/>
+      <c r="B37" s="26"/>
       <c r="C37" s="2" t="s">
         <v>90</v>
       </c>
@@ -2545,14 +2582,14 @@
         <v>108</v>
       </c>
       <c r="B62" s="20"/>
-      <c r="C62" s="24" t="s">
+      <c r="C62" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="26"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="24"/>
     </row>
     <row r="65" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" s="20" t="s">
@@ -2571,10 +2608,10 @@
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="22" t="s">
+      <c r="A66" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B66" s="23"/>
+      <c r="B66" s="26"/>
       <c r="C66" s="2" t="s">
         <v>119</v>
       </c>
@@ -2944,10 +2981,10 @@
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -2955,10 +2992,10 @@
       <c r="H91" s="1"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="22" t="s">
+      <c r="A92" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B92" s="23"/>
+      <c r="B92" s="26"/>
       <c r="C92" s="2"/>
       <c r="D92" s="3" t="s">
         <v>4</v>
@@ -3069,7 +3106,7 @@
         <v>20</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
@@ -3223,10 +3260,10 @@
         <v>10</v>
       </c>
       <c r="B107" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C107" s="11" t="s">
         <v>133</v>
-      </c>
-      <c r="C107" s="11" t="s">
-        <v>134</v>
       </c>
       <c r="D107" s="11" t="s">
         <v>70</v>
@@ -3243,10 +3280,10 @@
         <v>11</v>
       </c>
       <c r="B108" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C108" s="11" t="s">
         <v>135</v>
-      </c>
-      <c r="C108" s="11" t="s">
-        <v>136</v>
       </c>
       <c r="D108" s="11" t="s">
         <v>70</v>
@@ -3262,33 +3299,33 @@
       <c r="A109" s="9">
         <v>12</v>
       </c>
-      <c r="B109" s="15" t="s">
+      <c r="B109" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C109" s="15" t="s">
-        <v>137</v>
+      <c r="C109" s="14" t="s">
+        <v>136</v>
       </c>
       <c r="D109" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E109" s="15"/>
-      <c r="F109" s="15"/>
-      <c r="G109" s="15"/>
-      <c r="H109" s="15"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c r="G109" s="14"/>
+      <c r="H109" s="14"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="11"/>
-      <c r="B110" s="16"/>
-      <c r="C110" s="16"/>
+      <c r="B110" s="15"/>
+      <c r="C110" s="15"/>
       <c r="D110" s="11"/>
-      <c r="E110" s="16"/>
-      <c r="F110" s="16"/>
-      <c r="G110" s="16"/>
-      <c r="H110" s="16"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="15"/>
+      <c r="H110" s="15"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="21"/>
@@ -3340,7 +3377,7 @@
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D115" s="21"/>
       <c r="E115" s="21"/>
@@ -3354,10 +3391,10 @@
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
@@ -3365,10 +3402,10 @@
       <c r="H118" s="1"/>
     </row>
     <row r="119" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A119" s="22" t="s">
+      <c r="A119" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B119" s="23"/>
+      <c r="B119" s="26"/>
       <c r="C119" s="2" t="s">
         <v>110</v>
       </c>
@@ -3609,11 +3646,11 @@
         <v>0</v>
       </c>
       <c r="B138" s="20"/>
-      <c r="C138" s="19" t="s">
-        <v>154</v>
+      <c r="C138" s="18" t="s">
+        <v>152</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
@@ -3621,10 +3658,10 @@
       <c r="H138" s="1"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139" s="22" t="s">
+      <c r="A139" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B139" s="23"/>
+      <c r="B139" s="26"/>
       <c r="C139" s="2"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -3676,7 +3713,7 @@
       </c>
       <c r="B143" s="20"/>
       <c r="C143" s="21" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D143" s="21"/>
       <c r="E143" s="21"/>
@@ -3702,7 +3739,7 @@
       </c>
       <c r="B145" s="20"/>
       <c r="C145" s="21" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D145" s="21"/>
       <c r="E145" s="21"/>
@@ -3711,29 +3748,29 @@
       <c r="H145" s="21"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A146" s="17" t="s">
+      <c r="A146" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B146" s="17" t="s">
+      <c r="B146" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C146" s="17" t="s">
+      <c r="C146" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D146" s="17" t="s">
+      <c r="D146" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E146" s="17" t="s">
+      <c r="E146" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F146" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G146" s="17" t="s">
+      <c r="G146" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H146" s="17" t="s">
-        <v>132</v>
+      <c r="H146" s="16" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
@@ -3747,7 +3784,7 @@
         <v>22</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E147" s="9" t="s">
         <v>25</v>
@@ -3805,16 +3842,16 @@
         <v>4</v>
       </c>
       <c r="B150" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C150" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D150" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C150" s="11" t="s">
+      <c r="E150" s="11" t="s">
         <v>161</v>
-      </c>
-      <c r="D150" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="E150" s="11" t="s">
-        <v>163</v>
       </c>
       <c r="F150" s="11"/>
       <c r="G150" s="9"/>
@@ -3825,16 +3862,16 @@
         <v>5</v>
       </c>
       <c r="B151" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C151" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D151" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="C151" s="11" t="s">
+      <c r="E151" s="11" t="s">
         <v>165</v>
-      </c>
-      <c r="D151" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="E151" s="11" t="s">
-        <v>167</v>
       </c>
       <c r="F151" s="11"/>
       <c r="G151" s="11"/>
@@ -3845,16 +3882,16 @@
         <v>6</v>
       </c>
       <c r="B152" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D152" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="E152" s="11" t="s">
         <v>168</v>
-      </c>
-      <c r="C152" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D152" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="E152" s="11" t="s">
-        <v>170</v>
       </c>
       <c r="F152" s="11"/>
       <c r="G152" s="9"/>
@@ -3865,16 +3902,16 @@
         <v>7</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D153" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E153" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F153" s="11"/>
       <c r="G153" s="11"/>
@@ -3885,23 +3922,23 @@
         <v>8</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D154" s="11" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E154" s="11" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F154" s="11" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G154" s="11"/>
       <c r="H154" s="11" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
@@ -3909,19 +3946,19 @@
         <v>8</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D155" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E155" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F155" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G155" s="9"/>
       <c r="H155" s="9"/>
@@ -3931,19 +3968,19 @@
         <v>9</v>
       </c>
       <c r="B156" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C156" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D156" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="C156" s="11" t="s">
+      <c r="E156" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F156" s="11" t="s">
         <v>174</v>
-      </c>
-      <c r="D156" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="E156" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="F156" s="11" t="s">
-        <v>176</v>
       </c>
       <c r="G156" s="11"/>
       <c r="H156" s="11"/>
@@ -3953,16 +3990,16 @@
         <v>10</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D157" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E157" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F157" s="11"/>
       <c r="G157" s="9"/>
@@ -3990,7 +4027,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B160" s="20"/>
       <c r="C160" s="21"/>
@@ -4054,10 +4091,10 @@
       </c>
       <c r="B167" s="20"/>
       <c r="C167" s="13" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
@@ -4065,10 +4102,10 @@
       <c r="H167" s="1"/>
     </row>
     <row r="168" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A168" s="22" t="s">
+      <c r="A168" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B168" s="23"/>
+      <c r="B168" s="26"/>
       <c r="C168" s="2" t="s">
         <v>90</v>
       </c>
@@ -4159,28 +4196,28 @@
       <c r="H174" s="21"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A175" s="18" t="s">
+      <c r="A175" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B175" s="18" t="s">
+      <c r="B175" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C175" s="18" t="s">
+      <c r="C175" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D175" s="18" t="s">
+      <c r="D175" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E175" s="18" t="s">
+      <c r="E175" s="17" t="s">
         <v>18</v>
       </c>
       <c r="F175" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G175" s="18" t="s">
+      <c r="G175" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H175" s="18" t="s">
+      <c r="H175" s="17" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4313,10 +4350,10 @@
         <v>8</v>
       </c>
       <c r="B182" s="12" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C182" s="11" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D182" s="12" t="s">
         <v>70</v>
@@ -4335,10 +4372,10 @@
         <v>9</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D183" s="10" t="s">
         <v>41</v>
@@ -4357,10 +4394,10 @@
         <v>10</v>
       </c>
       <c r="B184" s="12" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C184" s="11" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D184" s="12" t="s">
         <v>41</v>
@@ -4380,7 +4417,7 @@
         <v>66</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D185" s="10" t="s">
         <v>68</v>
@@ -4398,7 +4435,7 @@
         <v>100</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D186" s="12" t="s">
         <v>62</v>
@@ -4489,14 +4526,14 @@
         <v>108</v>
       </c>
       <c r="B193" s="20"/>
-      <c r="C193" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="D193" s="25"/>
-      <c r="E193" s="25"/>
-      <c r="F193" s="25"/>
-      <c r="G193" s="25"/>
-      <c r="H193" s="26"/>
+      <c r="C193" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="D193" s="23"/>
+      <c r="E193" s="23"/>
+      <c r="F193" s="23"/>
+      <c r="G193" s="23"/>
+      <c r="H193" s="24"/>
     </row>
     <row r="196" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A196" s="20" t="s">
@@ -4507,7 +4544,7 @@
         <v>118</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
@@ -4515,10 +4552,10 @@
       <c r="H196" s="1"/>
     </row>
     <row r="197" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A197" s="22" t="s">
+      <c r="A197" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B197" s="23"/>
+      <c r="B197" s="26"/>
       <c r="C197" s="2" t="s">
         <v>119</v>
       </c>
@@ -4609,28 +4646,28 @@
       <c r="H203" s="21"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A204" s="18" t="s">
+      <c r="A204" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B204" s="18" t="s">
+      <c r="B204" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C204" s="18" t="s">
+      <c r="C204" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D204" s="18" t="s">
+      <c r="D204" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E204" s="18" t="s">
+      <c r="E204" s="17" t="s">
         <v>18</v>
       </c>
       <c r="F204" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G204" s="18" t="s">
+      <c r="G204" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H204" s="18" t="s">
+      <c r="H204" s="17" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4763,7 +4800,7 @@
         <v>8</v>
       </c>
       <c r="B211" s="12" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C211" s="11" t="s">
         <v>122</v>
@@ -4785,7 +4822,7 @@
         <v>10</v>
       </c>
       <c r="B212" s="12" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C212" s="11" t="s">
         <v>113</v>
@@ -4882,8 +4919,452 @@
       <c r="G219" s="21"/>
       <c r="H219" s="21"/>
     </row>
+    <row r="222" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A222" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B222" s="20"/>
+      <c r="C222" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E222" s="1"/>
+      <c r="F222" s="1"/>
+      <c r="G222" s="1"/>
+      <c r="H222" s="1"/>
+    </row>
+    <row r="223" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A223" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B223" s="26"/>
+      <c r="C223" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E223" s="4"/>
+      <c r="F223" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G223" s="3"/>
+      <c r="H223" s="4"/>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A224" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B224" s="20"/>
+      <c r="C224" s="21"/>
+      <c r="D224" s="21"/>
+      <c r="E224" s="21"/>
+      <c r="F224" s="21"/>
+      <c r="G224" s="21"/>
+      <c r="H224" s="21"/>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A225" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B225" s="20"/>
+      <c r="C225" s="21"/>
+      <c r="D225" s="21"/>
+      <c r="E225" s="21"/>
+      <c r="F225" s="21"/>
+      <c r="G225" s="21"/>
+      <c r="H225" s="21"/>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A226" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B226" s="20"/>
+      <c r="C226" s="21"/>
+      <c r="D226" s="21"/>
+      <c r="E226" s="21"/>
+      <c r="F226" s="21"/>
+      <c r="G226" s="21"/>
+      <c r="H226" s="21"/>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A227" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B227" s="20"/>
+      <c r="C227" s="21"/>
+      <c r="D227" s="21"/>
+      <c r="E227" s="21"/>
+      <c r="F227" s="21"/>
+      <c r="G227" s="21"/>
+      <c r="H227" s="21"/>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A228" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B228" s="20"/>
+      <c r="C228" s="21"/>
+      <c r="D228" s="21"/>
+      <c r="E228" s="21"/>
+      <c r="F228" s="21"/>
+      <c r="G228" s="21"/>
+      <c r="H228" s="21"/>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A229" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B229" s="20"/>
+      <c r="C229" s="21"/>
+      <c r="D229" s="21"/>
+      <c r="E229" s="21"/>
+      <c r="F229" s="21"/>
+      <c r="G229" s="21"/>
+      <c r="H229" s="21"/>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A230" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B230" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C230" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D230" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E230" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F230" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G230" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H230" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A231" s="9">
+        <v>1</v>
+      </c>
+      <c r="B231" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C231" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D231" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E231" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F231" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G231" s="9"/>
+      <c r="H231" s="9"/>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A232" s="9">
+        <v>3</v>
+      </c>
+      <c r="B232" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C232" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D232" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E232" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F232" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G232" s="9"/>
+      <c r="H232" s="9"/>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A233" s="11"/>
+      <c r="B233" s="12"/>
+      <c r="C233" s="11"/>
+      <c r="D233" s="12"/>
+      <c r="E233" s="11"/>
+      <c r="F233" s="11"/>
+      <c r="G233" s="11"/>
+      <c r="H233" s="11"/>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A234" s="9"/>
+      <c r="B234" s="10"/>
+      <c r="C234" s="10"/>
+      <c r="D234" s="10"/>
+      <c r="E234" s="9"/>
+      <c r="F234" s="9"/>
+      <c r="G234" s="9"/>
+      <c r="H234" s="9"/>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A235" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B235" s="20"/>
+      <c r="C235" s="21"/>
+      <c r="D235" s="21"/>
+      <c r="E235" s="21"/>
+      <c r="F235" s="21"/>
+      <c r="G235" s="21"/>
+      <c r="H235" s="21"/>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A236" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B236" s="20"/>
+      <c r="C236" s="21"/>
+      <c r="D236" s="21"/>
+      <c r="E236" s="21"/>
+      <c r="F236" s="21"/>
+      <c r="G236" s="21"/>
+      <c r="H236" s="21"/>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A237" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B237" s="20"/>
+      <c r="C237" s="21"/>
+      <c r="D237" s="21"/>
+      <c r="E237" s="21"/>
+      <c r="F237" s="21"/>
+      <c r="G237" s="21"/>
+      <c r="H237" s="21"/>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A238" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B238" s="20"/>
+      <c r="C238" s="21"/>
+      <c r="D238" s="21"/>
+      <c r="E238" s="21"/>
+      <c r="F238" s="21"/>
+      <c r="G238" s="21"/>
+      <c r="H238" s="21"/>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A239" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B239" s="20"/>
+      <c r="C239" s="21"/>
+      <c r="D239" s="21"/>
+      <c r="E239" s="21"/>
+      <c r="F239" s="21"/>
+      <c r="G239" s="21"/>
+      <c r="H239" s="21"/>
+    </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="206">
+    <mergeCell ref="A238:B238"/>
+    <mergeCell ref="C238:H238"/>
+    <mergeCell ref="A239:B239"/>
+    <mergeCell ref="C239:H239"/>
+    <mergeCell ref="A228:B228"/>
+    <mergeCell ref="C228:H228"/>
+    <mergeCell ref="A229:B229"/>
+    <mergeCell ref="C229:H229"/>
+    <mergeCell ref="A235:B235"/>
+    <mergeCell ref="C235:H235"/>
+    <mergeCell ref="A236:B236"/>
+    <mergeCell ref="C236:H236"/>
+    <mergeCell ref="A237:B237"/>
+    <mergeCell ref="C237:H237"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="A223:B223"/>
+    <mergeCell ref="A224:B224"/>
+    <mergeCell ref="C224:H224"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="C225:H225"/>
+    <mergeCell ref="A226:B226"/>
+    <mergeCell ref="C226:H226"/>
+    <mergeCell ref="A227:B227"/>
+    <mergeCell ref="C227:H227"/>
+    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="C163:H163"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="C164:H164"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="C144:H144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="C145:H145"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="C160:H160"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="C161:H161"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="C162:H162"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:H140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:H141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="C142:H142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="C143:H143"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:H135"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:H132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:H133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:H134"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:H124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:H125"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:H131"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:H121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:H122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:H123"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:H115"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:H120"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:H112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:H113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:H114"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:H97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:H111"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:H94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:H95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:H88"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:H93"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:H85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:H86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:H87"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:H72"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:H84"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:H68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:H69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:H67"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A169:B169"/>
+    <mergeCell ref="C169:H169"/>
+    <mergeCell ref="A170:B170"/>
+    <mergeCell ref="C170:H170"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="C171:H171"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="C172:H172"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="C173:H173"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="C174:H174"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="C189:H189"/>
+    <mergeCell ref="A190:B190"/>
+    <mergeCell ref="C190:H190"/>
+    <mergeCell ref="A191:B191"/>
+    <mergeCell ref="C191:H191"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="C192:H192"/>
+    <mergeCell ref="A193:B193"/>
+    <mergeCell ref="C193:H193"/>
+    <mergeCell ref="A196:B196"/>
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="A198:B198"/>
+    <mergeCell ref="C198:H198"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="C199:H199"/>
     <mergeCell ref="A216:B216"/>
     <mergeCell ref="C216:H216"/>
     <mergeCell ref="A217:B217"/>
@@ -4902,170 +5383,6 @@
     <mergeCell ref="C203:H203"/>
     <mergeCell ref="A215:B215"/>
     <mergeCell ref="C215:H215"/>
-    <mergeCell ref="A192:B192"/>
-    <mergeCell ref="C192:H192"/>
-    <mergeCell ref="A193:B193"/>
-    <mergeCell ref="C193:H193"/>
-    <mergeCell ref="A196:B196"/>
-    <mergeCell ref="A197:B197"/>
-    <mergeCell ref="A198:B198"/>
-    <mergeCell ref="C198:H198"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="C199:H199"/>
-    <mergeCell ref="A173:B173"/>
-    <mergeCell ref="C173:H173"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="C174:H174"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="C189:H189"/>
-    <mergeCell ref="A190:B190"/>
-    <mergeCell ref="C190:H190"/>
-    <mergeCell ref="A191:B191"/>
-    <mergeCell ref="C191:H191"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="A169:B169"/>
-    <mergeCell ref="C169:H169"/>
-    <mergeCell ref="A170:B170"/>
-    <mergeCell ref="C170:H170"/>
-    <mergeCell ref="A171:B171"/>
-    <mergeCell ref="C171:H171"/>
-    <mergeCell ref="A172:B172"/>
-    <mergeCell ref="C172:H172"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:H68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:H69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:H67"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:H85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:H86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:H87"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:H71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:H72"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:H84"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:H94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:H95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:H96"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:H88"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:H93"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="C112:H112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="C113:H113"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="C114:H114"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:H97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="C111:H111"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="C121:H121"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="C122:H122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="C123:H123"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="C115:H115"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="C120:H120"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="C135:H135"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="C132:H132"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="C133:H133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="C134:H134"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="C124:H124"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="C125:H125"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="C131:H131"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="C140:H140"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="C141:H141"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="C142:H142"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="C143:H143"/>
-    <mergeCell ref="A163:B163"/>
-    <mergeCell ref="C163:H163"/>
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="C164:H164"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="C144:H144"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="C145:H145"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="C160:H160"/>
-    <mergeCell ref="A161:B161"/>
-    <mergeCell ref="C161:H161"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="C162:H162"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5078,181 +5395,182 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:F16"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.75" customWidth="1"/>
+    <col min="1" max="1" width="22.75" style="29" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="14" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:6" s="28" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
+      <c r="B3" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
+      <c r="B4" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>143</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>155</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>196</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
+      <c r="A9" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B10" s="28" t="s">
+      <c r="A10" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
+      <c r="B11" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="B16:F16"/>
@@ -5264,6 +5582,11 @@
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/表定义.xlsx
+++ b/表定义.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="221">
   <si>
     <t>表名</t>
   </si>
@@ -897,6 +897,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>bs_departmentpermission</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">DROP TABLE IF EXISTS bs_rolepermission;
 CREATE TABLE `bs_rolepermission` (
   `roleid` bigint(20) NOT NULL AUTO_INCREMENT COMMENT '角色ID',
@@ -904,11 +908,6 @@
   UNIQUE KEY `roleid` (`roleid`,`permission`)
 ) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT='角色授权';
 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bs_departmentpermission</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DROP TABLE IF EXISTS bs_departmentpermission;
@@ -918,6 +917,43 @@
  `url` varchar(30) NOT NULL COMMENT '请求路径',
   UNIQUE KEY `departmentid` (`departmentid`,`permission`)
 ) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT='部门授权';</t>
+  </si>
+  <si>
+    <t>ac_process</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程定义表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>申请人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ac_processtype</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程类型定义表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeno</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程类型编码</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1096,7 +1132,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1160,8 +1196,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1171,12 +1216,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1508,10 +1547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H239"/>
+  <dimension ref="A1:H291"/>
   <sheetViews>
-    <sheetView topLeftCell="A213" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D222" sqref="D222"/>
+    <sheetView tabSelected="1" topLeftCell="A264" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K269" sqref="K269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1526,10 +1565,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="21"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1542,10 +1581,10 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1564,76 +1603,76 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
@@ -2142,10 +2181,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="20"/>
+      <c r="B36" s="21"/>
       <c r="C36" s="13" t="s">
         <v>89</v>
       </c>
@@ -2158,10 +2197,10 @@
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="26"/>
+      <c r="B37" s="24"/>
       <c r="C37" s="2" t="s">
         <v>90</v>
       </c>
@@ -2180,76 +2219,76 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="20"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="20"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="20" t="s">
+      <c r="A43" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
@@ -2530,72 +2569,72 @@
       <c r="H57" s="11"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="20" t="s">
+      <c r="A58" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="B58" s="20"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="20" t="s">
+      <c r="A59" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B59" s="20"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="20" t="s">
+      <c r="A60" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="B60" s="20"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="20" t="s">
+      <c r="A61" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="B61" s="20"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="20" t="s">
+      <c r="A62" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B62" s="20"/>
-      <c r="C62" s="22" t="s">
+      <c r="B62" s="21"/>
+      <c r="C62" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="24"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="27"/>
     </row>
     <row r="65" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="20" t="s">
+      <c r="A65" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B65" s="20"/>
+      <c r="B65" s="21"/>
       <c r="C65" s="13" t="s">
         <v>118</v>
       </c>
@@ -2608,10 +2647,10 @@
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="25" t="s">
+      <c r="A66" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B66" s="26"/>
+      <c r="B66" s="24"/>
       <c r="C66" s="2" t="s">
         <v>119</v>
       </c>
@@ -2630,76 +2669,76 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="20" t="s">
+      <c r="A67" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B67" s="20"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="21"/>
-      <c r="H67" s="21"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="22"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="20" t="s">
+      <c r="A68" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B68" s="20"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="21"/>
-      <c r="H68" s="21"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="20" t="s">
+      <c r="A69" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B69" s="20"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="21"/>
-      <c r="H69" s="21"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="20" t="s">
+      <c r="A70" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B70" s="20"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="21"/>
-      <c r="H70" s="21"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="22"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="20" t="s">
+      <c r="A71" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B71" s="20"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="21"/>
-      <c r="H71" s="21"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="22"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="20" t="s">
+      <c r="A72" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B72" s="20"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="21"/>
-      <c r="H72" s="21"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="22"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
@@ -2916,70 +2955,70 @@
       <c r="H83" s="9"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="20" t="s">
+      <c r="A84" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="B84" s="20"/>
-      <c r="C84" s="21"/>
-      <c r="D84" s="21"/>
-      <c r="E84" s="21"/>
-      <c r="F84" s="21"/>
-      <c r="G84" s="21"/>
-      <c r="H84" s="21"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="22"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="20" t="s">
+      <c r="A85" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B85" s="20"/>
-      <c r="C85" s="21"/>
-      <c r="D85" s="21"/>
-      <c r="E85" s="21"/>
-      <c r="F85" s="21"/>
-      <c r="G85" s="21"/>
-      <c r="H85" s="21"/>
+      <c r="B85" s="21"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="22"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="20" t="s">
+      <c r="A86" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="B86" s="20"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="21"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="21"/>
-      <c r="G86" s="21"/>
-      <c r="H86" s="21"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="22"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="20" t="s">
+      <c r="A87" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="B87" s="20"/>
-      <c r="C87" s="21"/>
-      <c r="D87" s="21"/>
-      <c r="E87" s="21"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="21"/>
-      <c r="H87" s="21"/>
+      <c r="B87" s="21"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="22"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="22"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="22"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="20" t="s">
+      <c r="A88" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B88" s="20"/>
-      <c r="C88" s="21"/>
-      <c r="D88" s="21"/>
-      <c r="E88" s="21"/>
-      <c r="F88" s="21"/>
-      <c r="G88" s="21"/>
-      <c r="H88" s="21"/>
+      <c r="B88" s="21"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="22"/>
     </row>
     <row r="91" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A91" s="20" t="s">
+      <c r="A91" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B91" s="20"/>
+      <c r="B91" s="21"/>
       <c r="C91" s="13" t="s">
         <v>139</v>
       </c>
@@ -2992,10 +3031,10 @@
       <c r="H91" s="1"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="25" t="s">
+      <c r="A92" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B92" s="26"/>
+      <c r="B92" s="24"/>
       <c r="C92" s="2"/>
       <c r="D92" s="3" t="s">
         <v>4</v>
@@ -3012,76 +3051,76 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="20" t="s">
+      <c r="A93" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B93" s="20"/>
-      <c r="C93" s="21"/>
-      <c r="D93" s="21"/>
-      <c r="E93" s="21"/>
-      <c r="F93" s="21"/>
-      <c r="G93" s="21"/>
-      <c r="H93" s="21"/>
+      <c r="B93" s="21"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="22"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="22"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="20" t="s">
+      <c r="A94" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B94" s="20"/>
-      <c r="C94" s="21"/>
-      <c r="D94" s="21"/>
-      <c r="E94" s="21"/>
-      <c r="F94" s="21"/>
-      <c r="G94" s="21"/>
-      <c r="H94" s="21"/>
+      <c r="B94" s="21"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="22"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="22"/>
+      <c r="H94" s="22"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="20" t="s">
+      <c r="A95" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B95" s="20"/>
-      <c r="C95" s="21"/>
-      <c r="D95" s="21"/>
-      <c r="E95" s="21"/>
-      <c r="F95" s="21"/>
-      <c r="G95" s="21"/>
-      <c r="H95" s="21"/>
+      <c r="B95" s="21"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="22"/>
+      <c r="E95" s="22"/>
+      <c r="F95" s="22"/>
+      <c r="G95" s="22"/>
+      <c r="H95" s="22"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="20" t="s">
+      <c r="A96" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B96" s="20"/>
-      <c r="C96" s="21"/>
-      <c r="D96" s="21"/>
-      <c r="E96" s="21"/>
-      <c r="F96" s="21"/>
-      <c r="G96" s="21"/>
-      <c r="H96" s="21"/>
+      <c r="B96" s="21"/>
+      <c r="C96" s="22"/>
+      <c r="D96" s="22"/>
+      <c r="E96" s="22"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="22"/>
+      <c r="H96" s="22"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="20" t="s">
+      <c r="A97" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B97" s="20"/>
-      <c r="C97" s="21"/>
-      <c r="D97" s="21"/>
-      <c r="E97" s="21"/>
-      <c r="F97" s="21"/>
-      <c r="G97" s="21"/>
-      <c r="H97" s="21"/>
+      <c r="B97" s="21"/>
+      <c r="C97" s="22"/>
+      <c r="D97" s="22"/>
+      <c r="E97" s="22"/>
+      <c r="F97" s="22"/>
+      <c r="G97" s="22"/>
+      <c r="H97" s="22"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="20" t="s">
+      <c r="A98" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B98" s="20"/>
-      <c r="C98" s="21"/>
-      <c r="D98" s="21"/>
-      <c r="E98" s="21"/>
-      <c r="F98" s="21"/>
-      <c r="G98" s="21"/>
-      <c r="H98" s="21"/>
+      <c r="B98" s="21"/>
+      <c r="C98" s="22"/>
+      <c r="D98" s="22"/>
+      <c r="E98" s="22"/>
+      <c r="F98" s="22"/>
+      <c r="G98" s="22"/>
+      <c r="H98" s="22"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
@@ -3324,72 +3363,72 @@
       <c r="H110" s="15"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" s="20" t="s">
+      <c r="A111" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="B111" s="20"/>
-      <c r="C111" s="21"/>
-      <c r="D111" s="21"/>
-      <c r="E111" s="21"/>
-      <c r="F111" s="21"/>
-      <c r="G111" s="21"/>
-      <c r="H111" s="21"/>
+      <c r="B111" s="21"/>
+      <c r="C111" s="22"/>
+      <c r="D111" s="22"/>
+      <c r="E111" s="22"/>
+      <c r="F111" s="22"/>
+      <c r="G111" s="22"/>
+      <c r="H111" s="22"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112" s="20" t="s">
+      <c r="A112" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B112" s="20"/>
-      <c r="C112" s="21"/>
-      <c r="D112" s="21"/>
-      <c r="E112" s="21"/>
-      <c r="F112" s="21"/>
-      <c r="G112" s="21"/>
-      <c r="H112" s="21"/>
+      <c r="B112" s="21"/>
+      <c r="C112" s="22"/>
+      <c r="D112" s="22"/>
+      <c r="E112" s="22"/>
+      <c r="F112" s="22"/>
+      <c r="G112" s="22"/>
+      <c r="H112" s="22"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="20" t="s">
+      <c r="A113" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="B113" s="20"/>
-      <c r="C113" s="21"/>
-      <c r="D113" s="21"/>
-      <c r="E113" s="21"/>
-      <c r="F113" s="21"/>
-      <c r="G113" s="21"/>
-      <c r="H113" s="21"/>
+      <c r="B113" s="21"/>
+      <c r="C113" s="22"/>
+      <c r="D113" s="22"/>
+      <c r="E113" s="22"/>
+      <c r="F113" s="22"/>
+      <c r="G113" s="22"/>
+      <c r="H113" s="22"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="20" t="s">
+      <c r="A114" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="B114" s="20"/>
-      <c r="C114" s="21"/>
-      <c r="D114" s="21"/>
-      <c r="E114" s="21"/>
-      <c r="F114" s="21"/>
-      <c r="G114" s="21"/>
-      <c r="H114" s="21"/>
+      <c r="B114" s="21"/>
+      <c r="C114" s="22"/>
+      <c r="D114" s="22"/>
+      <c r="E114" s="22"/>
+      <c r="F114" s="22"/>
+      <c r="G114" s="22"/>
+      <c r="H114" s="22"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="20" t="s">
+      <c r="A115" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B115" s="20"/>
-      <c r="C115" s="21" t="s">
+      <c r="B115" s="21"/>
+      <c r="C115" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="D115" s="21"/>
-      <c r="E115" s="21"/>
-      <c r="F115" s="21"/>
-      <c r="G115" s="21"/>
-      <c r="H115" s="21"/>
+      <c r="D115" s="22"/>
+      <c r="E115" s="22"/>
+      <c r="F115" s="22"/>
+      <c r="G115" s="22"/>
+      <c r="H115" s="22"/>
     </row>
     <row r="118" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A118" s="20" t="s">
+      <c r="A118" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B118" s="20"/>
+      <c r="B118" s="21"/>
       <c r="C118" s="13" t="s">
         <v>142</v>
       </c>
@@ -3402,10 +3441,10 @@
       <c r="H118" s="1"/>
     </row>
     <row r="119" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A119" s="25" t="s">
+      <c r="A119" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B119" s="26"/>
+      <c r="B119" s="24"/>
       <c r="C119" s="2" t="s">
         <v>110</v>
       </c>
@@ -3420,76 +3459,76 @@
       <c r="H119" s="4"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" s="20" t="s">
+      <c r="A120" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B120" s="20"/>
-      <c r="C120" s="21"/>
-      <c r="D120" s="21"/>
-      <c r="E120" s="21"/>
-      <c r="F120" s="21"/>
-      <c r="G120" s="21"/>
-      <c r="H120" s="21"/>
+      <c r="B120" s="21"/>
+      <c r="C120" s="22"/>
+      <c r="D120" s="22"/>
+      <c r="E120" s="22"/>
+      <c r="F120" s="22"/>
+      <c r="G120" s="22"/>
+      <c r="H120" s="22"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" s="20" t="s">
+      <c r="A121" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B121" s="20"/>
-      <c r="C121" s="21"/>
-      <c r="D121" s="21"/>
-      <c r="E121" s="21"/>
-      <c r="F121" s="21"/>
-      <c r="G121" s="21"/>
-      <c r="H121" s="21"/>
+      <c r="B121" s="21"/>
+      <c r="C121" s="22"/>
+      <c r="D121" s="22"/>
+      <c r="E121" s="22"/>
+      <c r="F121" s="22"/>
+      <c r="G121" s="22"/>
+      <c r="H121" s="22"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="20" t="s">
+      <c r="A122" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B122" s="20"/>
-      <c r="C122" s="21"/>
-      <c r="D122" s="21"/>
-      <c r="E122" s="21"/>
-      <c r="F122" s="21"/>
-      <c r="G122" s="21"/>
-      <c r="H122" s="21"/>
+      <c r="B122" s="21"/>
+      <c r="C122" s="22"/>
+      <c r="D122" s="22"/>
+      <c r="E122" s="22"/>
+      <c r="F122" s="22"/>
+      <c r="G122" s="22"/>
+      <c r="H122" s="22"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A123" s="20" t="s">
+      <c r="A123" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B123" s="20"/>
-      <c r="C123" s="21"/>
-      <c r="D123" s="21"/>
-      <c r="E123" s="21"/>
-      <c r="F123" s="21"/>
-      <c r="G123" s="21"/>
-      <c r="H123" s="21"/>
+      <c r="B123" s="21"/>
+      <c r="C123" s="22"/>
+      <c r="D123" s="22"/>
+      <c r="E123" s="22"/>
+      <c r="F123" s="22"/>
+      <c r="G123" s="22"/>
+      <c r="H123" s="22"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A124" s="20" t="s">
+      <c r="A124" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B124" s="20"/>
-      <c r="C124" s="21"/>
-      <c r="D124" s="21"/>
-      <c r="E124" s="21"/>
-      <c r="F124" s="21"/>
-      <c r="G124" s="21"/>
-      <c r="H124" s="21"/>
+      <c r="B124" s="21"/>
+      <c r="C124" s="22"/>
+      <c r="D124" s="22"/>
+      <c r="E124" s="22"/>
+      <c r="F124" s="22"/>
+      <c r="G124" s="22"/>
+      <c r="H124" s="22"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A125" s="20" t="s">
+      <c r="A125" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B125" s="20"/>
-      <c r="C125" s="21"/>
-      <c r="D125" s="21"/>
-      <c r="E125" s="21"/>
-      <c r="F125" s="21"/>
-      <c r="G125" s="21"/>
-      <c r="H125" s="21"/>
+      <c r="B125" s="21"/>
+      <c r="C125" s="22"/>
+      <c r="D125" s="22"/>
+      <c r="E125" s="22"/>
+      <c r="F125" s="22"/>
+      <c r="G125" s="22"/>
+      <c r="H125" s="22"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="7" t="s">
@@ -3582,70 +3621,70 @@
       <c r="H130" s="9"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="20" t="s">
+      <c r="A131" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="B131" s="20"/>
-      <c r="C131" s="21"/>
-      <c r="D131" s="21"/>
-      <c r="E131" s="21"/>
-      <c r="F131" s="21"/>
-      <c r="G131" s="21"/>
-      <c r="H131" s="21"/>
+      <c r="B131" s="21"/>
+      <c r="C131" s="22"/>
+      <c r="D131" s="22"/>
+      <c r="E131" s="22"/>
+      <c r="F131" s="22"/>
+      <c r="G131" s="22"/>
+      <c r="H131" s="22"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="20" t="s">
+      <c r="A132" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B132" s="20"/>
-      <c r="C132" s="21"/>
-      <c r="D132" s="21"/>
-      <c r="E132" s="21"/>
-      <c r="F132" s="21"/>
-      <c r="G132" s="21"/>
-      <c r="H132" s="21"/>
+      <c r="B132" s="21"/>
+      <c r="C132" s="22"/>
+      <c r="D132" s="22"/>
+      <c r="E132" s="22"/>
+      <c r="F132" s="22"/>
+      <c r="G132" s="22"/>
+      <c r="H132" s="22"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133" s="20" t="s">
+      <c r="A133" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="B133" s="20"/>
-      <c r="C133" s="21"/>
-      <c r="D133" s="21"/>
-      <c r="E133" s="21"/>
-      <c r="F133" s="21"/>
-      <c r="G133" s="21"/>
-      <c r="H133" s="21"/>
+      <c r="B133" s="21"/>
+      <c r="C133" s="22"/>
+      <c r="D133" s="22"/>
+      <c r="E133" s="22"/>
+      <c r="F133" s="22"/>
+      <c r="G133" s="22"/>
+      <c r="H133" s="22"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" s="20" t="s">
+      <c r="A134" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="B134" s="20"/>
-      <c r="C134" s="21"/>
-      <c r="D134" s="21"/>
-      <c r="E134" s="21"/>
-      <c r="F134" s="21"/>
-      <c r="G134" s="21"/>
-      <c r="H134" s="21"/>
+      <c r="B134" s="21"/>
+      <c r="C134" s="22"/>
+      <c r="D134" s="22"/>
+      <c r="E134" s="22"/>
+      <c r="F134" s="22"/>
+      <c r="G134" s="22"/>
+      <c r="H134" s="22"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A135" s="20" t="s">
+      <c r="A135" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B135" s="20"/>
-      <c r="C135" s="21"/>
-      <c r="D135" s="21"/>
-      <c r="E135" s="21"/>
-      <c r="F135" s="21"/>
-      <c r="G135" s="21"/>
-      <c r="H135" s="21"/>
+      <c r="B135" s="21"/>
+      <c r="C135" s="22"/>
+      <c r="D135" s="22"/>
+      <c r="E135" s="22"/>
+      <c r="F135" s="22"/>
+      <c r="G135" s="22"/>
+      <c r="H135" s="22"/>
     </row>
     <row r="138" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A138" s="20" t="s">
+      <c r="A138" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B138" s="20"/>
+      <c r="B138" s="21"/>
       <c r="C138" s="18" t="s">
         <v>152</v>
       </c>
@@ -3658,10 +3697,10 @@
       <c r="H138" s="1"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139" s="25" t="s">
+      <c r="A139" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B139" s="26"/>
+      <c r="B139" s="24"/>
       <c r="C139" s="2"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -3672,80 +3711,80 @@
       <c r="H139" s="6"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" s="20" t="s">
+      <c r="A140" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B140" s="20"/>
-      <c r="C140" s="21"/>
-      <c r="D140" s="21"/>
-      <c r="E140" s="21"/>
-      <c r="F140" s="21"/>
-      <c r="G140" s="21"/>
-      <c r="H140" s="21"/>
+      <c r="B140" s="21"/>
+      <c r="C140" s="22"/>
+      <c r="D140" s="22"/>
+      <c r="E140" s="22"/>
+      <c r="F140" s="22"/>
+      <c r="G140" s="22"/>
+      <c r="H140" s="22"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" s="20" t="s">
+      <c r="A141" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B141" s="20"/>
-      <c r="C141" s="21"/>
-      <c r="D141" s="21"/>
-      <c r="E141" s="21"/>
-      <c r="F141" s="21"/>
-      <c r="G141" s="21"/>
-      <c r="H141" s="21"/>
+      <c r="B141" s="21"/>
+      <c r="C141" s="22"/>
+      <c r="D141" s="22"/>
+      <c r="E141" s="22"/>
+      <c r="F141" s="22"/>
+      <c r="G141" s="22"/>
+      <c r="H141" s="22"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" s="20" t="s">
+      <c r="A142" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B142" s="20"/>
-      <c r="C142" s="21"/>
-      <c r="D142" s="21"/>
-      <c r="E142" s="21"/>
-      <c r="F142" s="21"/>
-      <c r="G142" s="21"/>
-      <c r="H142" s="21"/>
+      <c r="B142" s="21"/>
+      <c r="C142" s="22"/>
+      <c r="D142" s="22"/>
+      <c r="E142" s="22"/>
+      <c r="F142" s="22"/>
+      <c r="G142" s="22"/>
+      <c r="H142" s="22"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A143" s="20" t="s">
+      <c r="A143" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B143" s="20"/>
-      <c r="C143" s="21" t="s">
+      <c r="B143" s="21"/>
+      <c r="C143" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="D143" s="21"/>
-      <c r="E143" s="21"/>
-      <c r="F143" s="21"/>
-      <c r="G143" s="21"/>
-      <c r="H143" s="21"/>
+      <c r="D143" s="22"/>
+      <c r="E143" s="22"/>
+      <c r="F143" s="22"/>
+      <c r="G143" s="22"/>
+      <c r="H143" s="22"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A144" s="20" t="s">
+      <c r="A144" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B144" s="20"/>
-      <c r="C144" s="21"/>
-      <c r="D144" s="21"/>
-      <c r="E144" s="21"/>
-      <c r="F144" s="21"/>
-      <c r="G144" s="21"/>
-      <c r="H144" s="21"/>
+      <c r="B144" s="21"/>
+      <c r="C144" s="22"/>
+      <c r="D144" s="22"/>
+      <c r="E144" s="22"/>
+      <c r="F144" s="22"/>
+      <c r="G144" s="22"/>
+      <c r="H144" s="22"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A145" s="20" t="s">
+      <c r="A145" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B145" s="20"/>
-      <c r="C145" s="21" t="s">
+      <c r="B145" s="21"/>
+      <c r="C145" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="D145" s="21"/>
-      <c r="E145" s="21"/>
-      <c r="F145" s="21"/>
-      <c r="G145" s="21"/>
-      <c r="H145" s="21"/>
+      <c r="D145" s="22"/>
+      <c r="E145" s="22"/>
+      <c r="F145" s="22"/>
+      <c r="G145" s="22"/>
+      <c r="H145" s="22"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="16" t="s">
@@ -4026,70 +4065,70 @@
       <c r="H159" s="11"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A160" s="20" t="s">
+      <c r="A160" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="B160" s="20"/>
-      <c r="C160" s="21"/>
-      <c r="D160" s="21"/>
-      <c r="E160" s="21"/>
-      <c r="F160" s="21"/>
-      <c r="G160" s="21"/>
-      <c r="H160" s="21"/>
+      <c r="B160" s="21"/>
+      <c r="C160" s="22"/>
+      <c r="D160" s="22"/>
+      <c r="E160" s="22"/>
+      <c r="F160" s="22"/>
+      <c r="G160" s="22"/>
+      <c r="H160" s="22"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A161" s="20" t="s">
+      <c r="A161" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B161" s="20"/>
-      <c r="C161" s="21"/>
-      <c r="D161" s="21"/>
-      <c r="E161" s="21"/>
-      <c r="F161" s="21"/>
-      <c r="G161" s="21"/>
-      <c r="H161" s="21"/>
+      <c r="B161" s="21"/>
+      <c r="C161" s="22"/>
+      <c r="D161" s="22"/>
+      <c r="E161" s="22"/>
+      <c r="F161" s="22"/>
+      <c r="G161" s="22"/>
+      <c r="H161" s="22"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A162" s="20" t="s">
+      <c r="A162" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="B162" s="20"/>
-      <c r="C162" s="21"/>
-      <c r="D162" s="21"/>
-      <c r="E162" s="21"/>
-      <c r="F162" s="21"/>
-      <c r="G162" s="21"/>
-      <c r="H162" s="21"/>
+      <c r="B162" s="21"/>
+      <c r="C162" s="22"/>
+      <c r="D162" s="22"/>
+      <c r="E162" s="22"/>
+      <c r="F162" s="22"/>
+      <c r="G162" s="22"/>
+      <c r="H162" s="22"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A163" s="20" t="s">
+      <c r="A163" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="B163" s="20"/>
-      <c r="C163" s="21"/>
-      <c r="D163" s="21"/>
-      <c r="E163" s="21"/>
-      <c r="F163" s="21"/>
-      <c r="G163" s="21"/>
-      <c r="H163" s="21"/>
+      <c r="B163" s="21"/>
+      <c r="C163" s="22"/>
+      <c r="D163" s="22"/>
+      <c r="E163" s="22"/>
+      <c r="F163" s="22"/>
+      <c r="G163" s="22"/>
+      <c r="H163" s="22"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A164" s="20" t="s">
+      <c r="A164" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B164" s="20"/>
-      <c r="C164" s="21"/>
-      <c r="D164" s="21"/>
-      <c r="E164" s="21"/>
-      <c r="F164" s="21"/>
-      <c r="G164" s="21"/>
-      <c r="H164" s="21"/>
+      <c r="B164" s="21"/>
+      <c r="C164" s="22"/>
+      <c r="D164" s="22"/>
+      <c r="E164" s="22"/>
+      <c r="F164" s="22"/>
+      <c r="G164" s="22"/>
+      <c r="H164" s="22"/>
     </row>
     <row r="167" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A167" s="20" t="s">
+      <c r="A167" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B167" s="20"/>
+      <c r="B167" s="21"/>
       <c r="C167" s="13" t="s">
         <v>185</v>
       </c>
@@ -4102,10 +4141,10 @@
       <c r="H167" s="1"/>
     </row>
     <row r="168" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A168" s="25" t="s">
+      <c r="A168" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B168" s="26"/>
+      <c r="B168" s="24"/>
       <c r="C168" s="2" t="s">
         <v>90</v>
       </c>
@@ -4124,76 +4163,76 @@
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A169" s="20" t="s">
+      <c r="A169" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B169" s="20"/>
-      <c r="C169" s="21"/>
-      <c r="D169" s="21"/>
-      <c r="E169" s="21"/>
-      <c r="F169" s="21"/>
-      <c r="G169" s="21"/>
-      <c r="H169" s="21"/>
+      <c r="B169" s="21"/>
+      <c r="C169" s="22"/>
+      <c r="D169" s="22"/>
+      <c r="E169" s="22"/>
+      <c r="F169" s="22"/>
+      <c r="G169" s="22"/>
+      <c r="H169" s="22"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A170" s="20" t="s">
+      <c r="A170" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B170" s="20"/>
-      <c r="C170" s="21"/>
-      <c r="D170" s="21"/>
-      <c r="E170" s="21"/>
-      <c r="F170" s="21"/>
-      <c r="G170" s="21"/>
-      <c r="H170" s="21"/>
+      <c r="B170" s="21"/>
+      <c r="C170" s="22"/>
+      <c r="D170" s="22"/>
+      <c r="E170" s="22"/>
+      <c r="F170" s="22"/>
+      <c r="G170" s="22"/>
+      <c r="H170" s="22"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A171" s="20" t="s">
+      <c r="A171" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B171" s="20"/>
-      <c r="C171" s="21"/>
-      <c r="D171" s="21"/>
-      <c r="E171" s="21"/>
-      <c r="F171" s="21"/>
-      <c r="G171" s="21"/>
-      <c r="H171" s="21"/>
+      <c r="B171" s="21"/>
+      <c r="C171" s="22"/>
+      <c r="D171" s="22"/>
+      <c r="E171" s="22"/>
+      <c r="F171" s="22"/>
+      <c r="G171" s="22"/>
+      <c r="H171" s="22"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A172" s="20" t="s">
+      <c r="A172" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B172" s="20"/>
-      <c r="C172" s="21"/>
-      <c r="D172" s="21"/>
-      <c r="E172" s="21"/>
-      <c r="F172" s="21"/>
-      <c r="G172" s="21"/>
-      <c r="H172" s="21"/>
+      <c r="B172" s="21"/>
+      <c r="C172" s="22"/>
+      <c r="D172" s="22"/>
+      <c r="E172" s="22"/>
+      <c r="F172" s="22"/>
+      <c r="G172" s="22"/>
+      <c r="H172" s="22"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A173" s="20" t="s">
+      <c r="A173" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B173" s="20"/>
-      <c r="C173" s="21"/>
-      <c r="D173" s="21"/>
-      <c r="E173" s="21"/>
-      <c r="F173" s="21"/>
-      <c r="G173" s="21"/>
-      <c r="H173" s="21"/>
+      <c r="B173" s="21"/>
+      <c r="C173" s="22"/>
+      <c r="D173" s="22"/>
+      <c r="E173" s="22"/>
+      <c r="F173" s="22"/>
+      <c r="G173" s="22"/>
+      <c r="H173" s="22"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A174" s="20" t="s">
+      <c r="A174" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B174" s="20"/>
-      <c r="C174" s="21"/>
-      <c r="D174" s="21"/>
-      <c r="E174" s="21"/>
-      <c r="F174" s="21"/>
-      <c r="G174" s="21"/>
-      <c r="H174" s="21"/>
+      <c r="B174" s="21"/>
+      <c r="C174" s="22"/>
+      <c r="D174" s="22"/>
+      <c r="E174" s="22"/>
+      <c r="F174" s="22"/>
+      <c r="G174" s="22"/>
+      <c r="H174" s="22"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="17" t="s">
@@ -4474,72 +4513,72 @@
       <c r="H188" s="11"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A189" s="20" t="s">
+      <c r="A189" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="B189" s="20"/>
-      <c r="C189" s="21"/>
-      <c r="D189" s="21"/>
-      <c r="E189" s="21"/>
-      <c r="F189" s="21"/>
-      <c r="G189" s="21"/>
-      <c r="H189" s="21"/>
+      <c r="B189" s="21"/>
+      <c r="C189" s="22"/>
+      <c r="D189" s="22"/>
+      <c r="E189" s="22"/>
+      <c r="F189" s="22"/>
+      <c r="G189" s="22"/>
+      <c r="H189" s="22"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A190" s="20" t="s">
+      <c r="A190" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B190" s="20"/>
-      <c r="C190" s="21"/>
-      <c r="D190" s="21"/>
-      <c r="E190" s="21"/>
-      <c r="F190" s="21"/>
-      <c r="G190" s="21"/>
-      <c r="H190" s="21"/>
+      <c r="B190" s="21"/>
+      <c r="C190" s="22"/>
+      <c r="D190" s="22"/>
+      <c r="E190" s="22"/>
+      <c r="F190" s="22"/>
+      <c r="G190" s="22"/>
+      <c r="H190" s="22"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A191" s="20" t="s">
+      <c r="A191" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="B191" s="20"/>
-      <c r="C191" s="21"/>
-      <c r="D191" s="21"/>
-      <c r="E191" s="21"/>
-      <c r="F191" s="21"/>
-      <c r="G191" s="21"/>
-      <c r="H191" s="21"/>
+      <c r="B191" s="21"/>
+      <c r="C191" s="22"/>
+      <c r="D191" s="22"/>
+      <c r="E191" s="22"/>
+      <c r="F191" s="22"/>
+      <c r="G191" s="22"/>
+      <c r="H191" s="22"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A192" s="20" t="s">
+      <c r="A192" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="B192" s="20"/>
-      <c r="C192" s="21"/>
-      <c r="D192" s="21"/>
-      <c r="E192" s="21"/>
-      <c r="F192" s="21"/>
-      <c r="G192" s="21"/>
-      <c r="H192" s="21"/>
+      <c r="B192" s="21"/>
+      <c r="C192" s="22"/>
+      <c r="D192" s="22"/>
+      <c r="E192" s="22"/>
+      <c r="F192" s="22"/>
+      <c r="G192" s="22"/>
+      <c r="H192" s="22"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A193" s="20" t="s">
+      <c r="A193" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B193" s="20"/>
-      <c r="C193" s="22" t="s">
+      <c r="B193" s="21"/>
+      <c r="C193" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="D193" s="23"/>
-      <c r="E193" s="23"/>
-      <c r="F193" s="23"/>
-      <c r="G193" s="23"/>
-      <c r="H193" s="24"/>
+      <c r="D193" s="26"/>
+      <c r="E193" s="26"/>
+      <c r="F193" s="26"/>
+      <c r="G193" s="26"/>
+      <c r="H193" s="27"/>
     </row>
     <row r="196" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A196" s="20" t="s">
+      <c r="A196" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B196" s="20"/>
+      <c r="B196" s="21"/>
       <c r="C196" s="13" t="s">
         <v>118</v>
       </c>
@@ -4552,10 +4591,10 @@
       <c r="H196" s="1"/>
     </row>
     <row r="197" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A197" s="25" t="s">
+      <c r="A197" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B197" s="26"/>
+      <c r="B197" s="24"/>
       <c r="C197" s="2" t="s">
         <v>119</v>
       </c>
@@ -4574,76 +4613,76 @@
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A198" s="20" t="s">
+      <c r="A198" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B198" s="20"/>
-      <c r="C198" s="21"/>
-      <c r="D198" s="21"/>
-      <c r="E198" s="21"/>
-      <c r="F198" s="21"/>
-      <c r="G198" s="21"/>
-      <c r="H198" s="21"/>
+      <c r="B198" s="21"/>
+      <c r="C198" s="22"/>
+      <c r="D198" s="22"/>
+      <c r="E198" s="22"/>
+      <c r="F198" s="22"/>
+      <c r="G198" s="22"/>
+      <c r="H198" s="22"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A199" s="20" t="s">
+      <c r="A199" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B199" s="20"/>
-      <c r="C199" s="21"/>
-      <c r="D199" s="21"/>
-      <c r="E199" s="21"/>
-      <c r="F199" s="21"/>
-      <c r="G199" s="21"/>
-      <c r="H199" s="21"/>
+      <c r="B199" s="21"/>
+      <c r="C199" s="22"/>
+      <c r="D199" s="22"/>
+      <c r="E199" s="22"/>
+      <c r="F199" s="22"/>
+      <c r="G199" s="22"/>
+      <c r="H199" s="22"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A200" s="20" t="s">
+      <c r="A200" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B200" s="20"/>
-      <c r="C200" s="21"/>
-      <c r="D200" s="21"/>
-      <c r="E200" s="21"/>
-      <c r="F200" s="21"/>
-      <c r="G200" s="21"/>
-      <c r="H200" s="21"/>
+      <c r="B200" s="21"/>
+      <c r="C200" s="22"/>
+      <c r="D200" s="22"/>
+      <c r="E200" s="22"/>
+      <c r="F200" s="22"/>
+      <c r="G200" s="22"/>
+      <c r="H200" s="22"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A201" s="20" t="s">
+      <c r="A201" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B201" s="20"/>
-      <c r="C201" s="21"/>
-      <c r="D201" s="21"/>
-      <c r="E201" s="21"/>
-      <c r="F201" s="21"/>
-      <c r="G201" s="21"/>
-      <c r="H201" s="21"/>
+      <c r="B201" s="21"/>
+      <c r="C201" s="22"/>
+      <c r="D201" s="22"/>
+      <c r="E201" s="22"/>
+      <c r="F201" s="22"/>
+      <c r="G201" s="22"/>
+      <c r="H201" s="22"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A202" s="20" t="s">
+      <c r="A202" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B202" s="20"/>
-      <c r="C202" s="21"/>
-      <c r="D202" s="21"/>
-      <c r="E202" s="21"/>
-      <c r="F202" s="21"/>
-      <c r="G202" s="21"/>
-      <c r="H202" s="21"/>
+      <c r="B202" s="21"/>
+      <c r="C202" s="22"/>
+      <c r="D202" s="22"/>
+      <c r="E202" s="22"/>
+      <c r="F202" s="22"/>
+      <c r="G202" s="22"/>
+      <c r="H202" s="22"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A203" s="20" t="s">
+      <c r="A203" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B203" s="20"/>
-      <c r="C203" s="21"/>
-      <c r="D203" s="21"/>
-      <c r="E203" s="21"/>
-      <c r="F203" s="21"/>
-      <c r="G203" s="21"/>
-      <c r="H203" s="21"/>
+      <c r="B203" s="21"/>
+      <c r="C203" s="22"/>
+      <c r="D203" s="22"/>
+      <c r="E203" s="22"/>
+      <c r="F203" s="22"/>
+      <c r="G203" s="22"/>
+      <c r="H203" s="22"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="17" t="s">
@@ -4860,75 +4899,75 @@
       <c r="H214" s="9"/>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A215" s="20" t="s">
+      <c r="A215" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="B215" s="20"/>
-      <c r="C215" s="21"/>
-      <c r="D215" s="21"/>
-      <c r="E215" s="21"/>
-      <c r="F215" s="21"/>
-      <c r="G215" s="21"/>
-      <c r="H215" s="21"/>
+      <c r="B215" s="21"/>
+      <c r="C215" s="22"/>
+      <c r="D215" s="22"/>
+      <c r="E215" s="22"/>
+      <c r="F215" s="22"/>
+      <c r="G215" s="22"/>
+      <c r="H215" s="22"/>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A216" s="20" t="s">
+      <c r="A216" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B216" s="20"/>
-      <c r="C216" s="21"/>
-      <c r="D216" s="21"/>
-      <c r="E216" s="21"/>
-      <c r="F216" s="21"/>
-      <c r="G216" s="21"/>
-      <c r="H216" s="21"/>
+      <c r="B216" s="21"/>
+      <c r="C216" s="22"/>
+      <c r="D216" s="22"/>
+      <c r="E216" s="22"/>
+      <c r="F216" s="22"/>
+      <c r="G216" s="22"/>
+      <c r="H216" s="22"/>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A217" s="20" t="s">
+      <c r="A217" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="B217" s="20"/>
-      <c r="C217" s="21"/>
-      <c r="D217" s="21"/>
-      <c r="E217" s="21"/>
-      <c r="F217" s="21"/>
-      <c r="G217" s="21"/>
-      <c r="H217" s="21"/>
+      <c r="B217" s="21"/>
+      <c r="C217" s="22"/>
+      <c r="D217" s="22"/>
+      <c r="E217" s="22"/>
+      <c r="F217" s="22"/>
+      <c r="G217" s="22"/>
+      <c r="H217" s="22"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A218" s="20" t="s">
+      <c r="A218" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="B218" s="20"/>
-      <c r="C218" s="21"/>
-      <c r="D218" s="21"/>
-      <c r="E218" s="21"/>
-      <c r="F218" s="21"/>
-      <c r="G218" s="21"/>
-      <c r="H218" s="21"/>
+      <c r="B218" s="21"/>
+      <c r="C218" s="22"/>
+      <c r="D218" s="22"/>
+      <c r="E218" s="22"/>
+      <c r="F218" s="22"/>
+      <c r="G218" s="22"/>
+      <c r="H218" s="22"/>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A219" s="20" t="s">
+      <c r="A219" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B219" s="20"/>
-      <c r="C219" s="21"/>
-      <c r="D219" s="21"/>
-      <c r="E219" s="21"/>
-      <c r="F219" s="21"/>
-      <c r="G219" s="21"/>
-      <c r="H219" s="21"/>
+      <c r="B219" s="21"/>
+      <c r="C219" s="22"/>
+      <c r="D219" s="22"/>
+      <c r="E219" s="22"/>
+      <c r="F219" s="22"/>
+      <c r="G219" s="22"/>
+      <c r="H219" s="22"/>
     </row>
     <row r="222" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A222" s="20" t="s">
+      <c r="A222" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B222" s="20"/>
+      <c r="B222" s="21"/>
       <c r="C222" s="13" t="s">
         <v>142</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
@@ -4936,10 +4975,10 @@
       <c r="H222" s="1"/>
     </row>
     <row r="223" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A223" s="25" t="s">
+      <c r="A223" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B223" s="26"/>
+      <c r="B223" s="24"/>
       <c r="C223" s="2" t="s">
         <v>110</v>
       </c>
@@ -4954,76 +4993,76 @@
       <c r="H223" s="4"/>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A224" s="20" t="s">
+      <c r="A224" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B224" s="20"/>
-      <c r="C224" s="21"/>
-      <c r="D224" s="21"/>
-      <c r="E224" s="21"/>
-      <c r="F224" s="21"/>
-      <c r="G224" s="21"/>
-      <c r="H224" s="21"/>
+      <c r="B224" s="21"/>
+      <c r="C224" s="22"/>
+      <c r="D224" s="22"/>
+      <c r="E224" s="22"/>
+      <c r="F224" s="22"/>
+      <c r="G224" s="22"/>
+      <c r="H224" s="22"/>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A225" s="20" t="s">
+      <c r="A225" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B225" s="20"/>
-      <c r="C225" s="21"/>
-      <c r="D225" s="21"/>
-      <c r="E225" s="21"/>
-      <c r="F225" s="21"/>
-      <c r="G225" s="21"/>
-      <c r="H225" s="21"/>
+      <c r="B225" s="21"/>
+      <c r="C225" s="22"/>
+      <c r="D225" s="22"/>
+      <c r="E225" s="22"/>
+      <c r="F225" s="22"/>
+      <c r="G225" s="22"/>
+      <c r="H225" s="22"/>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A226" s="20" t="s">
+      <c r="A226" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B226" s="20"/>
-      <c r="C226" s="21"/>
-      <c r="D226" s="21"/>
-      <c r="E226" s="21"/>
-      <c r="F226" s="21"/>
-      <c r="G226" s="21"/>
-      <c r="H226" s="21"/>
+      <c r="B226" s="21"/>
+      <c r="C226" s="22"/>
+      <c r="D226" s="22"/>
+      <c r="E226" s="22"/>
+      <c r="F226" s="22"/>
+      <c r="G226" s="22"/>
+      <c r="H226" s="22"/>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A227" s="20" t="s">
+      <c r="A227" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B227" s="20"/>
-      <c r="C227" s="21"/>
-      <c r="D227" s="21"/>
-      <c r="E227" s="21"/>
-      <c r="F227" s="21"/>
-      <c r="G227" s="21"/>
-      <c r="H227" s="21"/>
+      <c r="B227" s="21"/>
+      <c r="C227" s="22"/>
+      <c r="D227" s="22"/>
+      <c r="E227" s="22"/>
+      <c r="F227" s="22"/>
+      <c r="G227" s="22"/>
+      <c r="H227" s="22"/>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A228" s="20" t="s">
+      <c r="A228" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B228" s="20"/>
-      <c r="C228" s="21"/>
-      <c r="D228" s="21"/>
-      <c r="E228" s="21"/>
-      <c r="F228" s="21"/>
-      <c r="G228" s="21"/>
-      <c r="H228" s="21"/>
+      <c r="B228" s="21"/>
+      <c r="C228" s="22"/>
+      <c r="D228" s="22"/>
+      <c r="E228" s="22"/>
+      <c r="F228" s="22"/>
+      <c r="G228" s="22"/>
+      <c r="H228" s="22"/>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A229" s="20" t="s">
+      <c r="A229" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B229" s="20"/>
-      <c r="C229" s="21"/>
-      <c r="D229" s="21"/>
-      <c r="E229" s="21"/>
-      <c r="F229" s="21"/>
-      <c r="G229" s="21"/>
-      <c r="H229" s="21"/>
+      <c r="B229" s="21"/>
+      <c r="C229" s="22"/>
+      <c r="D229" s="22"/>
+      <c r="E229" s="22"/>
+      <c r="F229" s="22"/>
+      <c r="G229" s="22"/>
+      <c r="H229" s="22"/>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" s="19" t="s">
@@ -5116,255 +5155,883 @@
       <c r="H234" s="9"/>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A235" s="20" t="s">
+      <c r="A235" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="B235" s="20"/>
-      <c r="C235" s="21"/>
-      <c r="D235" s="21"/>
-      <c r="E235" s="21"/>
-      <c r="F235" s="21"/>
-      <c r="G235" s="21"/>
-      <c r="H235" s="21"/>
+      <c r="B235" s="21"/>
+      <c r="C235" s="22"/>
+      <c r="D235" s="22"/>
+      <c r="E235" s="22"/>
+      <c r="F235" s="22"/>
+      <c r="G235" s="22"/>
+      <c r="H235" s="22"/>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A236" s="20" t="s">
+      <c r="A236" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B236" s="20"/>
-      <c r="C236" s="21"/>
-      <c r="D236" s="21"/>
-      <c r="E236" s="21"/>
-      <c r="F236" s="21"/>
-      <c r="G236" s="21"/>
-      <c r="H236" s="21"/>
+      <c r="B236" s="21"/>
+      <c r="C236" s="22"/>
+      <c r="D236" s="22"/>
+      <c r="E236" s="22"/>
+      <c r="F236" s="22"/>
+      <c r="G236" s="22"/>
+      <c r="H236" s="22"/>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A237" s="20" t="s">
+      <c r="A237" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="B237" s="20"/>
-      <c r="C237" s="21"/>
-      <c r="D237" s="21"/>
-      <c r="E237" s="21"/>
-      <c r="F237" s="21"/>
-      <c r="G237" s="21"/>
-      <c r="H237" s="21"/>
+      <c r="B237" s="21"/>
+      <c r="C237" s="22"/>
+      <c r="D237" s="22"/>
+      <c r="E237" s="22"/>
+      <c r="F237" s="22"/>
+      <c r="G237" s="22"/>
+      <c r="H237" s="22"/>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A238" s="20" t="s">
+      <c r="A238" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="B238" s="20"/>
-      <c r="C238" s="21"/>
-      <c r="D238" s="21"/>
-      <c r="E238" s="21"/>
-      <c r="F238" s="21"/>
-      <c r="G238" s="21"/>
-      <c r="H238" s="21"/>
+      <c r="B238" s="21"/>
+      <c r="C238" s="22"/>
+      <c r="D238" s="22"/>
+      <c r="E238" s="22"/>
+      <c r="F238" s="22"/>
+      <c r="G238" s="22"/>
+      <c r="H238" s="22"/>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A239" s="20" t="s">
+      <c r="A239" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B239" s="20"/>
-      <c r="C239" s="21"/>
-      <c r="D239" s="21"/>
-      <c r="E239" s="21"/>
-      <c r="F239" s="21"/>
-      <c r="G239" s="21"/>
-      <c r="H239" s="21"/>
+      <c r="B239" s="21"/>
+      <c r="C239" s="22"/>
+      <c r="D239" s="22"/>
+      <c r="E239" s="22"/>
+      <c r="F239" s="22"/>
+      <c r="G239" s="22"/>
+      <c r="H239" s="22"/>
+    </row>
+    <row r="242" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A242" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B242" s="21"/>
+      <c r="C242" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E242" s="1"/>
+      <c r="F242" s="1"/>
+      <c r="G242" s="1"/>
+      <c r="H242" s="1"/>
+    </row>
+    <row r="243" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A243" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B243" s="24"/>
+      <c r="C243" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E243" s="4"/>
+      <c r="F243" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G243" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H243" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A244" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B244" s="21"/>
+      <c r="C244" s="22"/>
+      <c r="D244" s="22"/>
+      <c r="E244" s="22"/>
+      <c r="F244" s="22"/>
+      <c r="G244" s="22"/>
+      <c r="H244" s="22"/>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A245" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B245" s="21"/>
+      <c r="C245" s="22"/>
+      <c r="D245" s="22"/>
+      <c r="E245" s="22"/>
+      <c r="F245" s="22"/>
+      <c r="G245" s="22"/>
+      <c r="H245" s="22"/>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A246" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B246" s="21"/>
+      <c r="C246" s="22"/>
+      <c r="D246" s="22"/>
+      <c r="E246" s="22"/>
+      <c r="F246" s="22"/>
+      <c r="G246" s="22"/>
+      <c r="H246" s="22"/>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A247" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B247" s="21"/>
+      <c r="C247" s="22"/>
+      <c r="D247" s="22"/>
+      <c r="E247" s="22"/>
+      <c r="F247" s="22"/>
+      <c r="G247" s="22"/>
+      <c r="H247" s="22"/>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A248" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B248" s="21"/>
+      <c r="C248" s="22"/>
+      <c r="D248" s="22"/>
+      <c r="E248" s="22"/>
+      <c r="F248" s="22"/>
+      <c r="G248" s="22"/>
+      <c r="H248" s="22"/>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A249" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B249" s="21"/>
+      <c r="C249" s="22"/>
+      <c r="D249" s="22"/>
+      <c r="E249" s="22"/>
+      <c r="F249" s="22"/>
+      <c r="G249" s="22"/>
+      <c r="H249" s="22"/>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A250" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B250" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C250" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D250" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E250" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F250" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G250" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H250" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A251" s="9">
+        <v>1</v>
+      </c>
+      <c r="B251" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C251" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D251" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E251" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F251" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G251" s="9"/>
+      <c r="H251" s="9"/>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A252" s="9">
+        <v>2</v>
+      </c>
+      <c r="B252" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C252" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D252" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E252" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F252" s="9"/>
+      <c r="G252" s="9"/>
+      <c r="H252" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A253" s="9">
+        <v>3</v>
+      </c>
+      <c r="B253" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C253" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D253" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E253" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F253" s="11"/>
+      <c r="G253" s="11"/>
+      <c r="H253" s="11"/>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A254" s="9">
+        <v>4</v>
+      </c>
+      <c r="B254" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C254" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D254" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E254" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F254" s="9"/>
+      <c r="G254" s="9"/>
+      <c r="H254" s="9"/>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A255" s="9">
+        <v>5</v>
+      </c>
+      <c r="B255" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C255" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D255" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E255" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F255" s="11"/>
+      <c r="G255" s="11"/>
+      <c r="H255" s="11"/>
+    </row>
+    <row r="256" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A256" s="9">
+        <v>6</v>
+      </c>
+      <c r="B256" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C256" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D256" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E256" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F256" s="9"/>
+      <c r="G256" s="9"/>
+      <c r="H256" s="9"/>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A257" s="9">
+        <v>7</v>
+      </c>
+      <c r="B257" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C257" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="D257" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E257" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F257" s="11">
+        <v>1</v>
+      </c>
+      <c r="G257" s="11"/>
+      <c r="H257" s="11"/>
+    </row>
+    <row r="258" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A258" s="9">
+        <v>8</v>
+      </c>
+      <c r="B258" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C258" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D258" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E258" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F258" s="11">
+        <v>1</v>
+      </c>
+      <c r="G258" s="11"/>
+      <c r="H258" s="11"/>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A259" s="11"/>
+      <c r="B259" s="12"/>
+      <c r="C259" s="11"/>
+      <c r="D259" s="12"/>
+      <c r="E259" s="11"/>
+      <c r="F259" s="11"/>
+      <c r="G259" s="11"/>
+      <c r="H259" s="11"/>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A260" s="9"/>
+      <c r="B260" s="10"/>
+      <c r="C260" s="10"/>
+      <c r="D260" s="10"/>
+      <c r="E260" s="9"/>
+      <c r="F260" s="9"/>
+      <c r="G260" s="9"/>
+      <c r="H260" s="9"/>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A261" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B261" s="21"/>
+      <c r="C261" s="22"/>
+      <c r="D261" s="22"/>
+      <c r="E261" s="22"/>
+      <c r="F261" s="22"/>
+      <c r="G261" s="22"/>
+      <c r="H261" s="22"/>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A262" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B262" s="21"/>
+      <c r="C262" s="22"/>
+      <c r="D262" s="22"/>
+      <c r="E262" s="22"/>
+      <c r="F262" s="22"/>
+      <c r="G262" s="22"/>
+      <c r="H262" s="22"/>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A263" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B263" s="21"/>
+      <c r="C263" s="22"/>
+      <c r="D263" s="22"/>
+      <c r="E263" s="22"/>
+      <c r="F263" s="22"/>
+      <c r="G263" s="22"/>
+      <c r="H263" s="22"/>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A264" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B264" s="21"/>
+      <c r="C264" s="22"/>
+      <c r="D264" s="22"/>
+      <c r="E264" s="22"/>
+      <c r="F264" s="22"/>
+      <c r="G264" s="22"/>
+      <c r="H264" s="22"/>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A265" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B265" s="21"/>
+      <c r="C265" s="22"/>
+      <c r="D265" s="22"/>
+      <c r="E265" s="22"/>
+      <c r="F265" s="22"/>
+      <c r="G265" s="22"/>
+      <c r="H265" s="22"/>
+    </row>
+    <row r="268" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A268" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B268" s="21"/>
+      <c r="C268" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E268" s="1"/>
+      <c r="F268" s="1"/>
+      <c r="G268" s="1"/>
+      <c r="H268" s="1"/>
+    </row>
+    <row r="269" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A269" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B269" s="24"/>
+      <c r="C269" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D269" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E269" s="4"/>
+      <c r="F269" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G269" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H269" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A270" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B270" s="21"/>
+      <c r="C270" s="22"/>
+      <c r="D270" s="22"/>
+      <c r="E270" s="22"/>
+      <c r="F270" s="22"/>
+      <c r="G270" s="22"/>
+      <c r="H270" s="22"/>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A271" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B271" s="21"/>
+      <c r="C271" s="22"/>
+      <c r="D271" s="22"/>
+      <c r="E271" s="22"/>
+      <c r="F271" s="22"/>
+      <c r="G271" s="22"/>
+      <c r="H271" s="22"/>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A272" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B272" s="21"/>
+      <c r="C272" s="22"/>
+      <c r="D272" s="22"/>
+      <c r="E272" s="22"/>
+      <c r="F272" s="22"/>
+      <c r="G272" s="22"/>
+      <c r="H272" s="22"/>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A273" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B273" s="21"/>
+      <c r="C273" s="22"/>
+      <c r="D273" s="22"/>
+      <c r="E273" s="22"/>
+      <c r="F273" s="22"/>
+      <c r="G273" s="22"/>
+      <c r="H273" s="22"/>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A274" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B274" s="21"/>
+      <c r="C274" s="22"/>
+      <c r="D274" s="22"/>
+      <c r="E274" s="22"/>
+      <c r="F274" s="22"/>
+      <c r="G274" s="22"/>
+      <c r="H274" s="22"/>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A275" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B275" s="21"/>
+      <c r="C275" s="22"/>
+      <c r="D275" s="22"/>
+      <c r="E275" s="22"/>
+      <c r="F275" s="22"/>
+      <c r="G275" s="22"/>
+      <c r="H275" s="22"/>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A276" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B276" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C276" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D276" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E276" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F276" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G276" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H276" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A277" s="9">
+        <v>1</v>
+      </c>
+      <c r="B277" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C277" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D277" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E277" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F277" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G277" s="9"/>
+      <c r="H277" s="9"/>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A278" s="9">
+        <v>2</v>
+      </c>
+      <c r="B278" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C278" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D278" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E278" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F278" s="9"/>
+      <c r="G278" s="9"/>
+      <c r="H278" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A279" s="9">
+        <v>3</v>
+      </c>
+      <c r="B279" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C279" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D279" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E279" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F279" s="11"/>
+      <c r="G279" s="11"/>
+      <c r="H279" s="11"/>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A280" s="9">
+        <v>4</v>
+      </c>
+      <c r="B280" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C280" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D280" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E280" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F280" s="9"/>
+      <c r="G280" s="9"/>
+      <c r="H280" s="9"/>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A281" s="9">
+        <v>5</v>
+      </c>
+      <c r="B281" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C281" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D281" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E281" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F281" s="11"/>
+      <c r="G281" s="11"/>
+      <c r="H281" s="11"/>
+    </row>
+    <row r="282" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A282" s="9">
+        <v>6</v>
+      </c>
+      <c r="B282" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C282" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D282" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E282" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F282" s="9"/>
+      <c r="G282" s="9"/>
+      <c r="H282" s="9"/>
+    </row>
+    <row r="283" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A283" s="9">
+        <v>7</v>
+      </c>
+      <c r="B283" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="C283" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D283" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E283" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F283" s="11">
+        <v>1</v>
+      </c>
+      <c r="G283" s="11"/>
+      <c r="H283" s="11"/>
+    </row>
+    <row r="284" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A284" s="9">
+        <v>8</v>
+      </c>
+      <c r="B284" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C284" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D284" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E284" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F284" s="11">
+        <v>1</v>
+      </c>
+      <c r="G284" s="11"/>
+      <c r="H284" s="11"/>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A285" s="11"/>
+      <c r="B285" s="12"/>
+      <c r="C285" s="11"/>
+      <c r="D285" s="12"/>
+      <c r="E285" s="11"/>
+      <c r="F285" s="11"/>
+      <c r="G285" s="11"/>
+      <c r="H285" s="11"/>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A286" s="9"/>
+      <c r="B286" s="10"/>
+      <c r="C286" s="10"/>
+      <c r="D286" s="10"/>
+      <c r="E286" s="9"/>
+      <c r="F286" s="9"/>
+      <c r="G286" s="9"/>
+      <c r="H286" s="9"/>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A287" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B287" s="21"/>
+      <c r="C287" s="22"/>
+      <c r="D287" s="22"/>
+      <c r="E287" s="22"/>
+      <c r="F287" s="22"/>
+      <c r="G287" s="22"/>
+      <c r="H287" s="22"/>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A288" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B288" s="21"/>
+      <c r="C288" s="22"/>
+      <c r="D288" s="22"/>
+      <c r="E288" s="22"/>
+      <c r="F288" s="22"/>
+      <c r="G288" s="22"/>
+      <c r="H288" s="22"/>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A289" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B289" s="21"/>
+      <c r="C289" s="22"/>
+      <c r="D289" s="22"/>
+      <c r="E289" s="22"/>
+      <c r="F289" s="22"/>
+      <c r="G289" s="22"/>
+      <c r="H289" s="22"/>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A290" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B290" s="21"/>
+      <c r="C290" s="22"/>
+      <c r="D290" s="22"/>
+      <c r="E290" s="22"/>
+      <c r="F290" s="22"/>
+      <c r="G290" s="22"/>
+      <c r="H290" s="22"/>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A291" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B291" s="21"/>
+      <c r="C291" s="22"/>
+      <c r="D291" s="22"/>
+      <c r="E291" s="22"/>
+      <c r="F291" s="22"/>
+      <c r="G291" s="22"/>
+      <c r="H291" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="206">
-    <mergeCell ref="A238:B238"/>
-    <mergeCell ref="C238:H238"/>
-    <mergeCell ref="A239:B239"/>
-    <mergeCell ref="C239:H239"/>
-    <mergeCell ref="A228:B228"/>
-    <mergeCell ref="C228:H228"/>
-    <mergeCell ref="A229:B229"/>
-    <mergeCell ref="C229:H229"/>
-    <mergeCell ref="A235:B235"/>
-    <mergeCell ref="C235:H235"/>
-    <mergeCell ref="A236:B236"/>
-    <mergeCell ref="C236:H236"/>
-    <mergeCell ref="A237:B237"/>
-    <mergeCell ref="C237:H237"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="A223:B223"/>
-    <mergeCell ref="A224:B224"/>
-    <mergeCell ref="C224:H224"/>
-    <mergeCell ref="A225:B225"/>
-    <mergeCell ref="C225:H225"/>
-    <mergeCell ref="A226:B226"/>
-    <mergeCell ref="C226:H226"/>
-    <mergeCell ref="A227:B227"/>
-    <mergeCell ref="C227:H227"/>
-    <mergeCell ref="A163:B163"/>
-    <mergeCell ref="C163:H163"/>
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="C164:H164"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="C144:H144"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="C145:H145"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="C160:H160"/>
-    <mergeCell ref="A161:B161"/>
-    <mergeCell ref="C161:H161"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="C162:H162"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="C140:H140"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="C141:H141"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="C142:H142"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="C143:H143"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="C135:H135"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="C132:H132"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="C133:H133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="C134:H134"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="C124:H124"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="C125:H125"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="C131:H131"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="C121:H121"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="C122:H122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="C123:H123"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="C115:H115"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="C120:H120"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="C112:H112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="C113:H113"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="C114:H114"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:H97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="C111:H111"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:H94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:H95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:H96"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:H88"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:H93"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:H85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:H86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:H87"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:H71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:H72"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:H84"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:H68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:H69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:H67"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="A169:B169"/>
-    <mergeCell ref="C169:H169"/>
-    <mergeCell ref="A170:B170"/>
-    <mergeCell ref="C170:H170"/>
-    <mergeCell ref="A171:B171"/>
-    <mergeCell ref="C171:H171"/>
-    <mergeCell ref="A172:B172"/>
-    <mergeCell ref="C172:H172"/>
-    <mergeCell ref="A173:B173"/>
-    <mergeCell ref="C173:H173"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="C174:H174"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="C189:H189"/>
-    <mergeCell ref="A190:B190"/>
-    <mergeCell ref="C190:H190"/>
-    <mergeCell ref="A191:B191"/>
-    <mergeCell ref="C191:H191"/>
-    <mergeCell ref="A192:B192"/>
-    <mergeCell ref="C192:H192"/>
-    <mergeCell ref="A193:B193"/>
-    <mergeCell ref="C193:H193"/>
-    <mergeCell ref="A196:B196"/>
-    <mergeCell ref="A197:B197"/>
-    <mergeCell ref="A198:B198"/>
-    <mergeCell ref="C198:H198"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="C199:H199"/>
+  <mergeCells count="254">
+    <mergeCell ref="A288:B288"/>
+    <mergeCell ref="C288:H288"/>
+    <mergeCell ref="A289:B289"/>
+    <mergeCell ref="C289:H289"/>
+    <mergeCell ref="A290:B290"/>
+    <mergeCell ref="C290:H290"/>
+    <mergeCell ref="A291:B291"/>
+    <mergeCell ref="C291:H291"/>
+    <mergeCell ref="A272:B272"/>
+    <mergeCell ref="C272:H272"/>
+    <mergeCell ref="A273:B273"/>
+    <mergeCell ref="C273:H273"/>
+    <mergeCell ref="A274:B274"/>
+    <mergeCell ref="C274:H274"/>
+    <mergeCell ref="A275:B275"/>
+    <mergeCell ref="C275:H275"/>
+    <mergeCell ref="A287:B287"/>
+    <mergeCell ref="C287:H287"/>
+    <mergeCell ref="A264:B264"/>
+    <mergeCell ref="C264:H264"/>
+    <mergeCell ref="A265:B265"/>
+    <mergeCell ref="C265:H265"/>
+    <mergeCell ref="A268:B268"/>
+    <mergeCell ref="A269:B269"/>
+    <mergeCell ref="A270:B270"/>
+    <mergeCell ref="C270:H270"/>
+    <mergeCell ref="A271:B271"/>
+    <mergeCell ref="C271:H271"/>
+    <mergeCell ref="A248:B248"/>
+    <mergeCell ref="C248:H248"/>
+    <mergeCell ref="A249:B249"/>
+    <mergeCell ref="C249:H249"/>
+    <mergeCell ref="A261:B261"/>
+    <mergeCell ref="C261:H261"/>
+    <mergeCell ref="A262:B262"/>
+    <mergeCell ref="C262:H262"/>
+    <mergeCell ref="A263:B263"/>
+    <mergeCell ref="C263:H263"/>
+    <mergeCell ref="A242:B242"/>
+    <mergeCell ref="A243:B243"/>
+    <mergeCell ref="A244:B244"/>
+    <mergeCell ref="C244:H244"/>
+    <mergeCell ref="A245:B245"/>
+    <mergeCell ref="C245:H245"/>
+    <mergeCell ref="A246:B246"/>
+    <mergeCell ref="C246:H246"/>
+    <mergeCell ref="A247:B247"/>
+    <mergeCell ref="C247:H247"/>
     <mergeCell ref="A216:B216"/>
     <mergeCell ref="C216:H216"/>
     <mergeCell ref="A217:B217"/>
@@ -5383,6 +6050,194 @@
     <mergeCell ref="C203:H203"/>
     <mergeCell ref="A215:B215"/>
     <mergeCell ref="C215:H215"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="C192:H192"/>
+    <mergeCell ref="A193:B193"/>
+    <mergeCell ref="C193:H193"/>
+    <mergeCell ref="A196:B196"/>
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="A198:B198"/>
+    <mergeCell ref="C198:H198"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="C199:H199"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="C173:H173"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="C174:H174"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="C189:H189"/>
+    <mergeCell ref="A190:B190"/>
+    <mergeCell ref="C190:H190"/>
+    <mergeCell ref="A191:B191"/>
+    <mergeCell ref="C191:H191"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A169:B169"/>
+    <mergeCell ref="C169:H169"/>
+    <mergeCell ref="A170:B170"/>
+    <mergeCell ref="C170:H170"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="C171:H171"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="C172:H172"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:H68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:H69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:H67"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:H85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:H86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:H87"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:H72"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:H84"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:H94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:H95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:H88"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:H93"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:H112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:H113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:H114"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:H97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:H111"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:H121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:H122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:H123"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:H115"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:H120"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:H135"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:H132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:H133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:H134"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:H124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:H125"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:H131"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:H140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:H141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="C142:H142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="C143:H143"/>
+    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="C163:H163"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="C164:H164"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="C144:H144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="C145:H145"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="C160:H160"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="C161:H161"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="C162:H162"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="A223:B223"/>
+    <mergeCell ref="A224:B224"/>
+    <mergeCell ref="C224:H224"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="C225:H225"/>
+    <mergeCell ref="A226:B226"/>
+    <mergeCell ref="C226:H226"/>
+    <mergeCell ref="A227:B227"/>
+    <mergeCell ref="C227:H227"/>
+    <mergeCell ref="A238:B238"/>
+    <mergeCell ref="C238:H238"/>
+    <mergeCell ref="A239:B239"/>
+    <mergeCell ref="C239:H239"/>
+    <mergeCell ref="A228:B228"/>
+    <mergeCell ref="C228:H228"/>
+    <mergeCell ref="A229:B229"/>
+    <mergeCell ref="C229:H229"/>
+    <mergeCell ref="A235:B235"/>
+    <mergeCell ref="C235:H235"/>
+    <mergeCell ref="A236:B236"/>
+    <mergeCell ref="C236:H236"/>
+    <mergeCell ref="A237:B237"/>
+    <mergeCell ref="C237:H237"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5394,183 +6249,188 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.75" style="29" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="29"/>
+    <col min="1" max="1" width="22.75" style="30" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="28" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:6" s="29" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="B7" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="B7" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="30" t="s">
         <v>208</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="B16:F16"/>
@@ -5582,11 +6442,6 @@
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
